--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_2_bus_ward34_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_2_bus_ward34_impedance.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9380319009541902</v>
+        <v>0.9380319009554192</v>
       </c>
       <c r="G2">
-        <v>-1.130199522048309</v>
+        <v>-1.130199521952451</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2917056037370233</v>
+        <v>0.2917056037382961</v>
       </c>
       <c r="G3">
-        <v>-29.1713773573014</v>
+        <v>-29.1713773552604</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -575,22 +575,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>36.10160952954078</v>
+        <v>4.282962610288488</v>
       </c>
       <c r="C4">
-        <v>1250.596438803547</v>
+        <v>148.3661769587496</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.92351147239496</v>
+        <v>77.77984578051343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.926842697491583E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.926842697491582E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070094227534568</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576223</v>
+        <v>0.9380319009574459</v>
       </c>
       <c r="P2">
-        <v>1.053494350469733</v>
+        <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116736208</v>
+        <v>25.98965116739707</v>
       </c>
       <c r="R2">
-        <v>-91.13019952207824</v>
+        <v>-91.13019952201601</v>
       </c>
       <c r="S2">
-        <v>153.5693903185904</v>
+        <v>153.5693903185486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214682102</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037548509</v>
+        <v>0.2917056037512941</v>
       </c>
       <c r="P3">
-        <v>0.8906876332707026</v>
+        <v>0.8906876332644384</v>
       </c>
       <c r="Q3">
-        <v>7.091324389127895</v>
+        <v>7.091324389062534</v>
       </c>
       <c r="R3">
-        <v>-119.171377355886</v>
+        <v>-119.1713773550799</v>
       </c>
       <c r="S3">
-        <v>171.7794727728209</v>
+        <v>171.7794727726615</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>31.26491097024306</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="D4">
-        <v>31.26491097024306</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="G4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802833</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680183</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>0.952627964818799</v>
+        <v>0.9526279648032094</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648133815</v>
+        <v>0.9526279648047558</v>
       </c>
       <c r="Q4">
-        <v>3.815323384907982E-11</v>
+        <v>-1.253133125492379E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999466</v>
+        <v>-179.9999999999812</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942856</v>
       </c>
       <c r="O5">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136794</v>
       </c>
       <c r="Q5">
-        <v>29.99999998571504</v>
+        <v>4.605063358393287E-10</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942856</v>
       </c>
       <c r="O6">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136793</v>
       </c>
       <c r="Q6">
-        <v>29.99999998571504</v>
+        <v>4.605066884408088E-10</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097838404996317</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.08559289172556</v>
+        <v>1.029837663667628</v>
       </c>
       <c r="P2">
-        <v>1.094991725299649</v>
+        <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>29.63155435916665</v>
+        <v>27.98323699101546</v>
       </c>
       <c r="R2">
-        <v>-90.17292053581582</v>
+        <v>-91.78162348160745</v>
       </c>
       <c r="S2">
-        <v>150.2836841037938</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.091158476804674</v>
+        <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>1.02554313000662</v>
+        <v>0.761777901871072</v>
       </c>
       <c r="P3">
-        <v>1.072493642371867</v>
+        <v>0.9348070984869523</v>
       </c>
       <c r="Q3">
-        <v>28.02344309136546</v>
+        <v>19.43181595267036</v>
       </c>
       <c r="R3">
-        <v>-91.18428950885612</v>
+        <v>-104.2565908665021</v>
       </c>
       <c r="S3">
-        <v>151.4445273957811</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1204,55 +1204,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="D4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="G4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802833</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680183</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.080940586160005</v>
+        <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>1.0010438569914</v>
+        <v>0.6233452632551814</v>
       </c>
       <c r="P4">
-        <v>1.07126650730899</v>
+        <v>0.9229411060011539</v>
       </c>
       <c r="Q4">
-        <v>27.58185552355448</v>
+        <v>16.25665454943073</v>
       </c>
       <c r="R4">
-        <v>-90.62548732469494</v>
+        <v>-104.9129785376843</v>
       </c>
       <c r="S4">
-        <v>152.1475228588321</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P5">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q5">
-        <v>29.99999999874164</v>
+        <v>16.25665454962341</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S5">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P6">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q6">
-        <v>29.99999999874164</v>
+        <v>16.25665454962341</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S6">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097838404996317</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.08559289172556</v>
+        <v>1.029837663667628</v>
       </c>
       <c r="P2">
-        <v>1.094991725299649</v>
+        <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>29.63155435916665</v>
+        <v>27.98323699101546</v>
       </c>
       <c r="R2">
-        <v>-90.17292053581582</v>
+        <v>-91.78162348160745</v>
       </c>
       <c r="S2">
-        <v>150.2836841037938</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.091158476804674</v>
+        <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>1.02554313000662</v>
+        <v>0.761777901871072</v>
       </c>
       <c r="P3">
-        <v>1.072493642371867</v>
+        <v>0.9348070984869523</v>
       </c>
       <c r="Q3">
-        <v>28.02344309136546</v>
+        <v>19.43181595267036</v>
       </c>
       <c r="R3">
-        <v>-91.18428950885612</v>
+        <v>-104.2565908665021</v>
       </c>
       <c r="S3">
-        <v>151.4445273957811</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1571,55 +1571,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="D4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="G4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802833</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680183</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.080940586160005</v>
+        <v>1.075852895209832</v>
       </c>
       <c r="O4">
-        <v>1.0010438569914</v>
+        <v>0.6233452632551814</v>
       </c>
       <c r="P4">
-        <v>1.07126650730899</v>
+        <v>0.9229411060011539</v>
       </c>
       <c r="Q4">
-        <v>27.58185552355448</v>
+        <v>16.25665454943073</v>
       </c>
       <c r="R4">
-        <v>-90.62548732469494</v>
+        <v>-104.9129785376843</v>
       </c>
       <c r="S4">
-        <v>152.1475228588321</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P5">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q5">
-        <v>29.99999999874164</v>
+        <v>16.25665454962341</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S5">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P6">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q6">
-        <v>29.99999999874164</v>
+        <v>16.25665454962341</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S6">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591991617</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>0.8500049525411363</v>
+        <v>0.850004952541402</v>
       </c>
       <c r="P2">
-        <v>0.9468598309451901</v>
+        <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.60992326807018</v>
+        <v>25.60992326808851</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337449</v>
+        <v>-92.65381631331513</v>
       </c>
       <c r="S2">
-        <v>153.3606354236727</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401385893</v>
+        <v>0.9900703401370794</v>
       </c>
       <c r="O3">
-        <v>0.3617201835047233</v>
+        <v>0.3617201835030114</v>
       </c>
       <c r="P3">
-        <v>0.7649715466384563</v>
+        <v>0.764971546641112</v>
       </c>
       <c r="Q3">
-        <v>8.150888684213088</v>
+        <v>8.15088868427442</v>
       </c>
       <c r="R3">
-        <v>-129.0915432248399</v>
+        <v>-129.0915432241894</v>
       </c>
       <c r="S3">
-        <v>169.4262793833598</v>
+        <v>169.4262793833645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515527</v>
       </c>
       <c r="D4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515527</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="G4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>3.55163834448742</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376319</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.8660254037897495</v>
+        <v>0.8660254037880056</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037851928</v>
+        <v>0.8660254037883343</v>
       </c>
       <c r="Q4">
-        <v>5.886905818392891E-11</v>
+        <v>1.722595345440869E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999999245</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O5">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q5">
-        <v>29.99999999139182</v>
+        <v>1.080488443850675E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O6">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q6">
-        <v>29.99999999139182</v>
+        <v>1.080506644799812E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591991617</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>0.8500049525411363</v>
+        <v>0.850004952541402</v>
       </c>
       <c r="P2">
-        <v>0.9468598309451901</v>
+        <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.60992326807018</v>
+        <v>25.60992326808851</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337449</v>
+        <v>-92.65381631331513</v>
       </c>
       <c r="S2">
-        <v>153.3606354236727</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401385893</v>
+        <v>0.9900703401370794</v>
       </c>
       <c r="O3">
-        <v>0.3617201835047233</v>
+        <v>0.3617201835030114</v>
       </c>
       <c r="P3">
-        <v>0.7649715466384563</v>
+        <v>0.764971546641112</v>
       </c>
       <c r="Q3">
-        <v>8.150888684213088</v>
+        <v>8.15088868427442</v>
       </c>
       <c r="R3">
-        <v>-129.0915432248399</v>
+        <v>-129.0915432241894</v>
       </c>
       <c r="S3">
-        <v>169.4262793833598</v>
+        <v>169.4262793833645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515527</v>
       </c>
       <c r="D4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515527</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="G4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>3.55163834448742</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376319</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.8660254037897495</v>
+        <v>0.8660254037880056</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037851928</v>
+        <v>0.8660254037883343</v>
       </c>
       <c r="Q4">
-        <v>5.886905818392891E-11</v>
+        <v>1.722595345440869E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999999245</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O5">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q5">
-        <v>29.99999999139182</v>
+        <v>1.080488443850675E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O6">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964467</v>
       </c>
       <c r="Q6">
-        <v>29.99999999139182</v>
+        <v>1.080506644799812E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9962209285661211</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>0.9805999568831073</v>
+        <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>0.9941488818114279</v>
+        <v>0.9681777323222119</v>
       </c>
       <c r="Q2">
-        <v>29.48254823110301</v>
+        <v>27.8246974452445</v>
       </c>
       <c r="R2">
-        <v>-90.13912458714363</v>
+        <v>-92.15705182751171</v>
       </c>
       <c r="S2">
-        <v>150.4499136536905</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9848080577388959</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.9069959046459487</v>
+        <v>0.7086876959566593</v>
       </c>
       <c r="P3">
-        <v>0.9702957667309946</v>
+        <v>0.8449321159941326</v>
       </c>
       <c r="Q3">
-        <v>27.4141245406182</v>
+        <v>19.61176266474866</v>
       </c>
       <c r="R3">
-        <v>-91.03487071282137</v>
+        <v>-105.2709110729077</v>
       </c>
       <c r="S3">
-        <v>152.140505481155</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2672,55 +2672,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="D4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="G4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>3.55163834448742</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376319</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.9630221127912729</v>
+        <v>0.9573399675119605</v>
       </c>
       <c r="O4">
-        <v>0.8759173713133417</v>
+        <v>0.5367995610775459</v>
       </c>
       <c r="P4">
-        <v>0.977856856068785</v>
+        <v>0.8529812840863314</v>
       </c>
       <c r="Q4">
-        <v>27.04520942853439</v>
+        <v>15.93288697155591</v>
       </c>
       <c r="R4">
-        <v>-88.91256469632604</v>
+        <v>-101.7238138495564</v>
       </c>
       <c r="S4">
-        <v>153.3976727388728</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O5">
-        <v>0.9999999999737773</v>
+        <v>0.5367995610863939</v>
       </c>
       <c r="P5">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931513</v>
       </c>
       <c r="Q5">
-        <v>29.99999999884877</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S5">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O6">
-        <v>0.9999999999737773</v>
+        <v>0.536799561086394</v>
       </c>
       <c r="P6">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931512</v>
       </c>
       <c r="Q6">
-        <v>29.99999999884877</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S6">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9962209285661211</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>0.9805999568831073</v>
+        <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>0.9941488818114279</v>
+        <v>0.9681777323222119</v>
       </c>
       <c r="Q2">
-        <v>29.48254823110301</v>
+        <v>27.8246974452445</v>
       </c>
       <c r="R2">
-        <v>-90.13912458714363</v>
+        <v>-92.15705182751171</v>
       </c>
       <c r="S2">
-        <v>150.4499136536905</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9848080577388959</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.9069959046459487</v>
+        <v>0.7086876959566593</v>
       </c>
       <c r="P3">
-        <v>0.9702957667309946</v>
+        <v>0.8449321159941326</v>
       </c>
       <c r="Q3">
-        <v>27.4141245406182</v>
+        <v>19.61176266474866</v>
       </c>
       <c r="R3">
-        <v>-91.03487071282137</v>
+        <v>-105.2709110729077</v>
       </c>
       <c r="S3">
-        <v>152.140505481155</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3039,55 +3039,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="D4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="G4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>3.55163834448742</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376319</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.9630221127912729</v>
+        <v>0.9573399675119605</v>
       </c>
       <c r="O4">
-        <v>0.8759173713133417</v>
+        <v>0.5367995610775459</v>
       </c>
       <c r="P4">
-        <v>0.977856856068785</v>
+        <v>0.8529812840863314</v>
       </c>
       <c r="Q4">
-        <v>27.04520942853439</v>
+        <v>15.93288697155591</v>
       </c>
       <c r="R4">
-        <v>-88.91256469632604</v>
+        <v>-101.7238138495564</v>
       </c>
       <c r="S4">
-        <v>153.3976727388728</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O5">
-        <v>0.9999999999737773</v>
+        <v>0.5367995610863939</v>
       </c>
       <c r="P5">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931513</v>
       </c>
       <c r="Q5">
-        <v>29.99999999884877</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S5">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O6">
-        <v>0.9999999999737773</v>
+        <v>0.536799561086394</v>
       </c>
       <c r="P6">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931512</v>
       </c>
       <c r="Q6">
-        <v>29.99999999884877</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S6">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.062063044253549</v>
+        <v>0.9861308108586486</v>
       </c>
       <c r="O2">
-        <v>1.100000023842654</v>
+        <v>1.100000023847537</v>
       </c>
       <c r="P2">
-        <v>1.080971079745456</v>
+        <v>1.028855199037967</v>
       </c>
       <c r="Q2">
-        <v>30.03427046701902</v>
+        <v>31.20178199995176</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000669</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>148.2751526377006</v>
+        <v>145.0676635123766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9008801589637836</v>
+        <v>0.5017839789834513</v>
       </c>
       <c r="O3">
-        <v>1.100000023839713</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P3">
-        <v>1.021970909657363</v>
+        <v>0.8775850755570955</v>
       </c>
       <c r="Q3">
-        <v>29.54014509746226</v>
+        <v>38.79388502419479</v>
       </c>
       <c r="R3">
-        <v>-90.00000000006877</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>140.0785644089484</v>
+        <v>116.4647194486009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>14.53735578908807</v>
+        <v>5.270261429553182</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>167.8629255627073</v>
+        <v>60.85573710104463</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.84982568956765</v>
+        <v>1.849825689567651</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757671</v>
+        <v>0.7325309365756871</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801473</v>
+        <v>0.6277319162686238</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834472</v>
+        <v>0.62773191636399</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738871</v>
+        <v>2.898438697959878</v>
       </c>
       <c r="N4">
-        <v>0.8470868655374661</v>
+        <v>0.4179741834732568</v>
       </c>
       <c r="O4">
-        <v>1.100000023837804</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P4">
-        <v>0.965993269363505</v>
+        <v>0.7534809345991491</v>
       </c>
       <c r="Q4">
-        <v>32.24905218090448</v>
+        <v>62.67922138001573</v>
       </c>
       <c r="R4">
-        <v>-90.00000000002012</v>
+        <v>-89.99999999999665</v>
       </c>
       <c r="S4">
-        <v>137.8707015090701</v>
+        <v>104.7500506116007</v>
       </c>
       <c r="T4">
-        <v>14.53735578908807</v>
+        <v>5.270261429553181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901594</v>
       </c>
       <c r="O5">
-        <v>1.100000023836849</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P5">
-        <v>1.100000023845747</v>
+        <v>0.7534809345867743</v>
       </c>
       <c r="Q5">
-        <v>29.99999999621783</v>
+        <v>62.67922137998031</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S5">
-        <v>149.9999999932348</v>
+        <v>104.7500506124762</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901595</v>
       </c>
       <c r="O6">
-        <v>1.100000023836849</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P6">
-        <v>1.100000023845747</v>
+        <v>0.7534809345867743</v>
       </c>
       <c r="Q6">
-        <v>29.99999999621783</v>
+        <v>62.67922137998029</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S6">
-        <v>149.9999999932348</v>
+        <v>104.7500506124762</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.062063044253549</v>
+        <v>0.9861308108586486</v>
       </c>
       <c r="O2">
-        <v>1.100000023842654</v>
+        <v>1.100000023847537</v>
       </c>
       <c r="P2">
-        <v>1.080971079745456</v>
+        <v>1.028855199037967</v>
       </c>
       <c r="Q2">
-        <v>30.03427046701902</v>
+        <v>31.20178199995176</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000669</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>148.2751526377006</v>
+        <v>145.0676635123766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9008801589637836</v>
+        <v>0.5017839789834513</v>
       </c>
       <c r="O3">
-        <v>1.100000023839713</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P3">
-        <v>1.021970909657363</v>
+        <v>0.8775850755570955</v>
       </c>
       <c r="Q3">
-        <v>29.54014509746226</v>
+        <v>38.79388502419479</v>
       </c>
       <c r="R3">
-        <v>-90.00000000006877</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>140.0785644089484</v>
+        <v>116.4647194486009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>14.53735578908807</v>
+        <v>5.270261429553182</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>167.8629255627073</v>
+        <v>60.85573710104463</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.84982568956765</v>
+        <v>1.849825689567651</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757671</v>
+        <v>0.7325309365756871</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801473</v>
+        <v>0.6277319162686238</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834472</v>
+        <v>0.62773191636399</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738871</v>
+        <v>2.898438697959878</v>
       </c>
       <c r="N4">
-        <v>0.8470868655374661</v>
+        <v>0.4179741834732568</v>
       </c>
       <c r="O4">
-        <v>1.100000023837804</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P4">
-        <v>0.965993269363505</v>
+        <v>0.7534809345991491</v>
       </c>
       <c r="Q4">
-        <v>32.24905218090448</v>
+        <v>62.67922138001573</v>
       </c>
       <c r="R4">
-        <v>-90.00000000002012</v>
+        <v>-89.99999999999665</v>
       </c>
       <c r="S4">
-        <v>137.8707015090701</v>
+        <v>104.7500506116007</v>
       </c>
       <c r="T4">
-        <v>14.53735578908807</v>
+        <v>5.270261429553181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901594</v>
       </c>
       <c r="O5">
-        <v>1.100000023836849</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P5">
-        <v>1.100000023845747</v>
+        <v>0.7534809345867743</v>
       </c>
       <c r="Q5">
-        <v>29.99999999621783</v>
+        <v>62.67922137998031</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S5">
-        <v>149.9999999932348</v>
+        <v>104.7500506124762</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901595</v>
       </c>
       <c r="O6">
-        <v>1.100000023836849</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P6">
-        <v>1.100000023845747</v>
+        <v>0.7534809345867743</v>
       </c>
       <c r="Q6">
-        <v>29.99999999621783</v>
+        <v>62.67922137998029</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S6">
-        <v>149.9999999932348</v>
+        <v>104.7500506124762</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.095952844084183</v>
+        <v>1.070287335385026</v>
       </c>
       <c r="O2">
-        <v>1.100000023841902</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.09704974450046</v>
+        <v>1.087432713371585</v>
       </c>
       <c r="Q2">
-        <v>30.05616804931108</v>
+        <v>29.87894597690854</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999771</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.8449778415018</v>
+        <v>148.5843831011227</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.078481005501112</v>
+        <v>0.94499511013698</v>
       </c>
       <c r="O3">
-        <v>1.100000023841407</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P3">
-        <v>1.085455543753163</v>
+        <v>1.049816937116054</v>
       </c>
       <c r="Q3">
-        <v>30.23949248178319</v>
+        <v>28.77922907069108</v>
       </c>
       <c r="R3">
-        <v>-90.0000000000058</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S3">
-        <v>149.1348106225964</v>
+        <v>142.0890444401773</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141222</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.52771114106567</v>
+        <v>15.64146606117794</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.84982568956765</v>
+        <v>1.849825689567651</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757671</v>
+        <v>0.7325309365756871</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801473</v>
+        <v>0.6277319162686238</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834472</v>
+        <v>0.62773191636399</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738871</v>
+        <v>2.898438697959878</v>
       </c>
       <c r="N4">
-        <v>1.073764278488292</v>
+        <v>0.8993131324624146</v>
       </c>
       <c r="O4">
-        <v>1.100000023841158</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P4">
-        <v>1.078092134544782</v>
+        <v>1.00754439640636</v>
       </c>
       <c r="Q4">
-        <v>30.54895474277178</v>
+        <v>30.48183270043303</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999946</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S4">
-        <v>149.063551183147</v>
+        <v>140.283523874082</v>
       </c>
       <c r="T4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654359</v>
       </c>
       <c r="O5">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P5">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974282</v>
+        <v>30.48183270063194</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S5">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654359</v>
       </c>
       <c r="O6">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P6">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974282</v>
+        <v>30.48183270063194</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S6">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9380319009541902</v>
+        <v>0.9380319009554192</v>
       </c>
       <c r="G2">
-        <v>-1.130199522048309</v>
+        <v>-1.130199521952451</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2917056037370233</v>
+        <v>0.2917056037382961</v>
       </c>
       <c r="G3">
-        <v>-29.1713773573014</v>
+        <v>-29.1713773552604</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4450,22 +4450,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>36.10160952954078</v>
+        <v>4.282962610288488</v>
       </c>
       <c r="C4">
-        <v>1250.596438803547</v>
+        <v>148.3661769587496</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.92351147239496</v>
+        <v>77.77984578051343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.926842697491583E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.926842697491582E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.095952844084183</v>
+        <v>1.070287335385026</v>
       </c>
       <c r="O2">
-        <v>1.100000023841902</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.09704974450046</v>
+        <v>1.087432713371585</v>
       </c>
       <c r="Q2">
-        <v>30.05616804931108</v>
+        <v>29.87894597690854</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999771</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.8449778415018</v>
+        <v>148.5843831011227</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.078481005501112</v>
+        <v>0.94499511013698</v>
       </c>
       <c r="O3">
-        <v>1.100000023841407</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P3">
-        <v>1.085455543753163</v>
+        <v>1.049816937116054</v>
       </c>
       <c r="Q3">
-        <v>30.23949248178319</v>
+        <v>28.77922907069108</v>
       </c>
       <c r="R3">
-        <v>-90.0000000000058</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S3">
-        <v>149.1348106225964</v>
+        <v>142.0890444401773</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141222</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.52771114106567</v>
+        <v>15.64146606117794</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.84982568956765</v>
+        <v>1.849825689567651</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757671</v>
+        <v>0.7325309365756871</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801473</v>
+        <v>0.6277319162686238</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960062</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834472</v>
+        <v>0.62773191636399</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738871</v>
+        <v>2.898438697959878</v>
       </c>
       <c r="N4">
-        <v>1.073764278488292</v>
+        <v>0.8993131324624146</v>
       </c>
       <c r="O4">
-        <v>1.100000023841158</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P4">
-        <v>1.078092134544782</v>
+        <v>1.00754439640636</v>
       </c>
       <c r="Q4">
-        <v>30.54895474277178</v>
+        <v>30.48183270043303</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999946</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S4">
-        <v>149.063551183147</v>
+        <v>140.283523874082</v>
       </c>
       <c r="T4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654359</v>
       </c>
       <c r="O5">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P5">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974282</v>
+        <v>30.48183270063194</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S5">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654359</v>
       </c>
       <c r="O6">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P6">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974282</v>
+        <v>30.48183270063194</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S6">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9701284557398245</v>
+        <v>0.9028326587833732</v>
       </c>
       <c r="O2">
-        <v>0.9999999999984606</v>
+        <v>0.9999999999953423</v>
       </c>
       <c r="P2">
-        <v>0.9872613523958762</v>
+        <v>0.9626941529704611</v>
       </c>
       <c r="Q2">
-        <v>29.87513500976641</v>
+        <v>29.46991355217288</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999896</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4370022449747</v>
+        <v>144.7337965372936</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8563712960285287</v>
+        <v>0.5363499856580267</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994836</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P3">
-        <v>0.9528282048946233</v>
+        <v>0.9313780817015812</v>
       </c>
       <c r="Q3">
-        <v>28.81413212758866</v>
+        <v>23.06203797024838</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001211</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S3">
-        <v>141.9515065693041</v>
+        <v>121.9949494734441</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.591035404809599</v>
+        <v>3.902567407462479</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>87.65372668789605</v>
+        <v>45.06296686458244</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.55163834448745</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263003</v>
+        <v>0.7246530378262186</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361477</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631504</v>
+        <v>3.00639754374561</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392123</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.299469856063705</v>
+        <v>3.006397543745379</v>
       </c>
       <c r="N4">
-        <v>0.8119879298661645</v>
+        <v>0.3976035367747505</v>
       </c>
       <c r="O4">
-        <v>0.9999999999992126</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P4">
-        <v>0.8871827881257469</v>
+        <v>0.7694482201421926</v>
       </c>
       <c r="Q4">
-        <v>32.48617564125077</v>
+        <v>45.38254385680958</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000119</v>
+        <v>-89.999999999997</v>
       </c>
       <c r="S4">
-        <v>140.5362474113457</v>
+        <v>111.2809607241676</v>
       </c>
       <c r="T4">
-        <v>7.591035404809599</v>
+        <v>3.902567407462479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946174</v>
       </c>
       <c r="O5">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P5">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323417</v>
       </c>
       <c r="Q5">
-        <v>29.99999999714115</v>
+        <v>45.3825438570837</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S5">
-        <v>149.9999999964024</v>
+        <v>111.2809607254598</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946174</v>
       </c>
       <c r="O6">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P6">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323417</v>
       </c>
       <c r="Q6">
-        <v>29.99999999714115</v>
+        <v>45.38254385708369</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S6">
-        <v>149.9999999964024</v>
+        <v>111.2809607254598</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9701284557398245</v>
+        <v>0.9028326587833732</v>
       </c>
       <c r="O2">
-        <v>0.9999999999984606</v>
+        <v>0.9999999999953423</v>
       </c>
       <c r="P2">
-        <v>0.9872613523958762</v>
+        <v>0.9626941529704611</v>
       </c>
       <c r="Q2">
-        <v>29.87513500976641</v>
+        <v>29.46991355217288</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999896</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4370022449747</v>
+        <v>144.7337965372936</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8563712960285287</v>
+        <v>0.5363499856580267</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994836</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P3">
-        <v>0.9528282048946233</v>
+        <v>0.9313780817015812</v>
       </c>
       <c r="Q3">
-        <v>28.81413212758866</v>
+        <v>23.06203797024838</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001211</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S3">
-        <v>141.9515065693041</v>
+        <v>121.9949494734441</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.591035404809599</v>
+        <v>3.902567407462479</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>87.65372668789605</v>
+        <v>45.06296686458244</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.55163834448745</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263003</v>
+        <v>0.7246530378262186</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361477</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631504</v>
+        <v>3.00639754374561</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392123</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.299469856063705</v>
+        <v>3.006397543745379</v>
       </c>
       <c r="N4">
-        <v>0.8119879298661645</v>
+        <v>0.3976035367747505</v>
       </c>
       <c r="O4">
-        <v>0.9999999999992126</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P4">
-        <v>0.8871827881257469</v>
+        <v>0.7694482201421926</v>
       </c>
       <c r="Q4">
-        <v>32.48617564125077</v>
+        <v>45.38254385680958</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000119</v>
+        <v>-89.999999999997</v>
       </c>
       <c r="S4">
-        <v>140.5362474113457</v>
+        <v>111.2809607241676</v>
       </c>
       <c r="T4">
-        <v>7.591035404809599</v>
+        <v>3.902567407462479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946174</v>
       </c>
       <c r="O5">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P5">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323417</v>
       </c>
       <c r="Q5">
-        <v>29.99999999714115</v>
+        <v>45.3825438570837</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S5">
-        <v>149.9999999964024</v>
+        <v>111.2809607254598</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946174</v>
       </c>
       <c r="O6">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P6">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323417</v>
       </c>
       <c r="Q6">
-        <v>29.99999999714115</v>
+        <v>45.38254385708369</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S6">
-        <v>149.9999999964024</v>
+        <v>111.2809607254598</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949065075629351</v>
+        <v>0.9714894419843783</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997956</v>
+        <v>0.9999999999985384</v>
       </c>
       <c r="P2">
-        <v>0.9959206504058759</v>
+        <v>0.9895711899749619</v>
       </c>
       <c r="Q2">
-        <v>30.10227738871918</v>
+        <v>29.76366881512976</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999834</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.7972349075094</v>
+        <v>148.453800399059</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9749627628767567</v>
+        <v>0.8636183456042644</v>
       </c>
       <c r="O3">
-        <v>0.9999999999997158</v>
+        <v>0.9999999999999917</v>
       </c>
       <c r="P3">
-        <v>0.9813113124072433</v>
+        <v>0.9636262065017435</v>
       </c>
       <c r="Q3">
-        <v>30.42904142457119</v>
+        <v>28.23968561661016</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000747</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S3">
-        <v>148.9456917009257</v>
+        <v>142.1430813749406</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387573</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.79227839464017</v>
+        <v>13.30167314207686</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.55163834448745</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263003</v>
+        <v>0.7246530378262186</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361477</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631504</v>
+        <v>3.00639754374561</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392123</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.299469856063705</v>
+        <v>3.006397543745379</v>
       </c>
       <c r="N4">
-        <v>0.9714519175636923</v>
+        <v>0.8168453072499234</v>
       </c>
       <c r="O4">
-        <v>0.9999999999995201</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P4">
-        <v>0.9690675402581644</v>
+        <v>0.9021094454740588</v>
       </c>
       <c r="Q4">
-        <v>31.13624959024775</v>
+        <v>31.49316412544034</v>
       </c>
       <c r="R4">
-        <v>-90</v>
+        <v>-89.99999999999656</v>
       </c>
       <c r="S4">
-        <v>149.0979068769133</v>
+        <v>140.5435759540181</v>
       </c>
       <c r="T4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553684</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P5">
-        <v>0.9999999999985036</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q5">
-        <v>29.9999999997035</v>
+        <v>31.4931641255981</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S5">
-        <v>149.9999999993122</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553683</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P6">
-        <v>0.9999999999985036</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q6">
-        <v>29.9999999997035</v>
+        <v>31.4931641255981</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S6">
-        <v>149.9999999993122</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949065075629351</v>
+        <v>0.9714894419843783</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997956</v>
+        <v>0.9999999999985384</v>
       </c>
       <c r="P2">
-        <v>0.9959206504058759</v>
+        <v>0.9895711899749619</v>
       </c>
       <c r="Q2">
-        <v>30.10227738871918</v>
+        <v>29.76366881512976</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999834</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.7972349075094</v>
+        <v>148.453800399059</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9749627628767567</v>
+        <v>0.8636183456042644</v>
       </c>
       <c r="O3">
-        <v>0.9999999999997158</v>
+        <v>0.9999999999999917</v>
       </c>
       <c r="P3">
-        <v>0.9813113124072433</v>
+        <v>0.9636262065017435</v>
       </c>
       <c r="Q3">
-        <v>30.42904142457119</v>
+        <v>28.23968561661016</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000747</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S3">
-        <v>148.9456917009257</v>
+        <v>142.1430813749406</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387573</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.79227839464017</v>
+        <v>13.30167314207686</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.55163834448745</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263003</v>
+        <v>0.7246530378262186</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361477</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631504</v>
+        <v>3.00639754374561</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392123</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.299469856063705</v>
+        <v>3.006397543745379</v>
       </c>
       <c r="N4">
-        <v>0.9714519175636923</v>
+        <v>0.8168453072499234</v>
       </c>
       <c r="O4">
-        <v>0.9999999999995201</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P4">
-        <v>0.9690675402581644</v>
+        <v>0.9021094454740588</v>
       </c>
       <c r="Q4">
-        <v>31.13624959024775</v>
+        <v>31.49316412544034</v>
       </c>
       <c r="R4">
-        <v>-90</v>
+        <v>-89.99999999999656</v>
       </c>
       <c r="S4">
-        <v>149.0979068769133</v>
+        <v>140.5435759540181</v>
       </c>
       <c r="T4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553684</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P5">
-        <v>0.9999999999985036</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q5">
-        <v>29.9999999997035</v>
+        <v>31.4931641255981</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S5">
-        <v>149.9999999993122</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553683</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P6">
-        <v>0.9999999999985036</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q6">
-        <v>29.9999999997035</v>
+        <v>31.4931641255981</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S6">
-        <v>149.9999999993122</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.058621281234367</v>
+        <v>1.003771146437942</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576273</v>
+        <v>0.9380319009600877</v>
       </c>
       <c r="P2">
-        <v>1.047898941557878</v>
+        <v>1.027066586988846</v>
       </c>
       <c r="Q2">
-        <v>25.89722486501228</v>
+        <v>25.10974688705308</v>
       </c>
       <c r="R2">
-        <v>-91.13019952208252</v>
+        <v>-91.1301995219643</v>
       </c>
       <c r="S2">
-        <v>153.0152357586409</v>
+        <v>150.105434766502</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9795458200987738</v>
+        <v>0.7662234980466637</v>
       </c>
       <c r="O3">
-        <v>0.2917056037534476</v>
+        <v>0.2917056037515682</v>
       </c>
       <c r="P3">
-        <v>0.84926539218286</v>
+        <v>0.7170203818791413</v>
       </c>
       <c r="Q3">
-        <v>5.287483966460731</v>
+        <v>-8.463037977617292</v>
       </c>
       <c r="R3">
-        <v>-119.1713773561578</v>
+        <v>-119.1713773541731</v>
       </c>
       <c r="S3">
-        <v>168.8355783310216</v>
+        <v>149.1694533067009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>33.57818293747791</v>
+        <v>5.978372114037349</v>
       </c>
       <c r="D4">
-        <v>29.44496471876576</v>
+        <v>3.316348281737781</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>387.7274591570273</v>
+        <v>69.03229498710431</v>
       </c>
       <c r="G4">
-        <v>340.0011661331689</v>
+        <v>38.29389146375722</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802833</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680183</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>0.8843149431187631</v>
+        <v>0.6168272759030893</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8843149431132366</v>
+        <v>0.6168272759106724</v>
       </c>
       <c r="Q4">
-        <v>-2.374743779386526</v>
+        <v>-23.63454170168728</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>177.6252562207854</v>
+        <v>156.3654582984636</v>
       </c>
       <c r="T4">
-        <v>8.889432008443386</v>
+        <v>6.200555778018478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892142</v>
       </c>
       <c r="O5">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194585</v>
       </c>
       <c r="Q5">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045775</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000025994</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892139</v>
       </c>
       <c r="O6">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194585</v>
       </c>
       <c r="Q6">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045775</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000025994</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.058621281234367</v>
+        <v>1.003771146437942</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576273</v>
+        <v>0.9380319009600877</v>
       </c>
       <c r="P2">
-        <v>1.047898941557878</v>
+        <v>1.027066586988846</v>
       </c>
       <c r="Q2">
-        <v>25.89722486501228</v>
+        <v>25.10974688705308</v>
       </c>
       <c r="R2">
-        <v>-91.13019952208252</v>
+        <v>-91.1301995219643</v>
       </c>
       <c r="S2">
-        <v>153.0152357586409</v>
+        <v>150.105434766502</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9795458200987738</v>
+        <v>0.7662234980466637</v>
       </c>
       <c r="O3">
-        <v>0.2917056037534476</v>
+        <v>0.2917056037515682</v>
       </c>
       <c r="P3">
-        <v>0.84926539218286</v>
+        <v>0.7170203818791413</v>
       </c>
       <c r="Q3">
-        <v>5.287483966460731</v>
+        <v>-8.463037977617292</v>
       </c>
       <c r="R3">
-        <v>-119.1713773561578</v>
+        <v>-119.1713773541731</v>
       </c>
       <c r="S3">
-        <v>168.8355783310216</v>
+        <v>149.1694533067009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>33.57818293747791</v>
+        <v>5.978372114037349</v>
       </c>
       <c r="D4">
-        <v>29.44496471876576</v>
+        <v>3.316348281737781</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>387.7274591570273</v>
+        <v>69.03229498710431</v>
       </c>
       <c r="G4">
-        <v>340.0011661331689</v>
+        <v>38.29389146375722</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802833</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680183</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>0.8843149431187631</v>
+        <v>0.6168272759030893</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8843149431132366</v>
+        <v>0.6168272759106724</v>
       </c>
       <c r="Q4">
-        <v>-2.374743779386526</v>
+        <v>-23.63454170168728</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>177.6252562207854</v>
+        <v>156.3654582984636</v>
       </c>
       <c r="T4">
-        <v>8.889432008443386</v>
+        <v>6.200555778018478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892142</v>
       </c>
       <c r="O5">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194585</v>
       </c>
       <c r="Q5">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045775</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000025994</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892139</v>
       </c>
       <c r="O6">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194585</v>
       </c>
       <c r="Q6">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045775</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000025994</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.096963023349297</v>
+        <v>1.085119466026329</v>
       </c>
       <c r="O2">
-        <v>1.092464912624874</v>
+        <v>1.056966443490433</v>
       </c>
       <c r="P2">
-        <v>1.096012558658065</v>
+        <v>1.073012604801041</v>
       </c>
       <c r="Q2">
-        <v>29.82990054509916</v>
+        <v>28.55247409146676</v>
       </c>
       <c r="R2">
-        <v>-90.0920213042705</v>
+        <v>-91.34292556127178</v>
       </c>
       <c r="S2">
-        <v>150.0725021364624</v>
+        <v>149.9060870231489</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.085101068434687</v>
+        <v>1.0383727798703</v>
       </c>
       <c r="O3">
-        <v>1.061021327659622</v>
+        <v>0.8910570420401244</v>
       </c>
       <c r="P3">
-        <v>1.078713534910298</v>
+        <v>0.959085185327724</v>
       </c>
       <c r="Q3">
-        <v>29.05335469915065</v>
+        <v>21.80527961679276</v>
       </c>
       <c r="R3">
-        <v>-90.61025236802486</v>
+        <v>-99.16867920487201</v>
       </c>
       <c r="S3">
-        <v>150.3273785501559</v>
+        <v>149.0000007596288</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.70739274386115</v>
+        <v>1.425313463171979</v>
       </c>
       <c r="D4">
-        <v>1.617855060282567</v>
+        <v>1.229368488193133</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.71527320561297</v>
+        <v>16.4581022328388</v>
       </c>
       <c r="G4">
-        <v>18.68138109127877</v>
+        <v>14.19552455183097</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802833</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680183</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.077317737880303</v>
+        <v>0.9920972039485565</v>
       </c>
       <c r="O4">
-        <v>1.048207173903643</v>
+        <v>0.8020156209381428</v>
       </c>
       <c r="P4">
-        <v>1.074422137823873</v>
+        <v>0.9179643930775101</v>
       </c>
       <c r="Q4">
-        <v>28.9636965318363</v>
+        <v>20.02025408702195</v>
       </c>
       <c r="R4">
-        <v>-90.32747358826397</v>
+        <v>-99.52967390013555</v>
       </c>
       <c r="S4">
-        <v>150.6578079011808</v>
+        <v>150.5520691986205</v>
       </c>
       <c r="T4">
-        <v>1.508437509592413</v>
+        <v>1.392802299785661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O5">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392318</v>
       </c>
       <c r="P5">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q5">
-        <v>29.99999999921113</v>
+        <v>20.02025408726495</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102297</v>
+        <v>-99.52967389962163</v>
       </c>
       <c r="S5">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O6">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392318</v>
       </c>
       <c r="P6">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q6">
-        <v>29.99999999921113</v>
+        <v>20.02025408726495</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102297</v>
+        <v>-99.52967389962163</v>
       </c>
       <c r="S6">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.096963023349297</v>
+        <v>1.085119466026329</v>
       </c>
       <c r="O2">
-        <v>1.092464912624874</v>
+        <v>1.056966443490433</v>
       </c>
       <c r="P2">
-        <v>1.096012558658065</v>
+        <v>1.073012604801041</v>
       </c>
       <c r="Q2">
-        <v>29.82990054509916</v>
+        <v>28.55247409146676</v>
       </c>
       <c r="R2">
-        <v>-90.0920213042705</v>
+        <v>-91.34292556127178</v>
       </c>
       <c r="S2">
-        <v>150.0725021364624</v>
+        <v>149.9060870231489</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.085101068434687</v>
+        <v>1.0383727798703</v>
       </c>
       <c r="O3">
-        <v>1.061021327659622</v>
+        <v>0.8910570420401244</v>
       </c>
       <c r="P3">
-        <v>1.078713534910298</v>
+        <v>0.959085185327724</v>
       </c>
       <c r="Q3">
-        <v>29.05335469915065</v>
+        <v>21.80527961679276</v>
       </c>
       <c r="R3">
-        <v>-90.61025236802486</v>
+        <v>-99.16867920487201</v>
       </c>
       <c r="S3">
-        <v>150.3273785501559</v>
+        <v>149.0000007596288</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.70739274386115</v>
+        <v>1.425313463171979</v>
       </c>
       <c r="D4">
-        <v>1.617855060282567</v>
+        <v>1.229368488193133</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.71527320561297</v>
+        <v>16.4581022328388</v>
       </c>
       <c r="G4">
-        <v>18.68138109127877</v>
+        <v>14.19552455183097</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802833</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680183</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>1.077317737880303</v>
+        <v>0.9920972039485565</v>
       </c>
       <c r="O4">
-        <v>1.048207173903643</v>
+        <v>0.8020156209381428</v>
       </c>
       <c r="P4">
-        <v>1.074422137823873</v>
+        <v>0.9179643930775101</v>
       </c>
       <c r="Q4">
-        <v>28.9636965318363</v>
+        <v>20.02025408702195</v>
       </c>
       <c r="R4">
-        <v>-90.32747358826397</v>
+        <v>-99.52967390013555</v>
       </c>
       <c r="S4">
-        <v>150.6578079011808</v>
+        <v>150.5520691986205</v>
       </c>
       <c r="T4">
-        <v>1.508437509592413</v>
+        <v>1.392802299785661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O5">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392318</v>
       </c>
       <c r="P5">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q5">
-        <v>29.99999999921113</v>
+        <v>20.02025408726495</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102297</v>
+        <v>-99.52967389962163</v>
       </c>
       <c r="S5">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O6">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392318</v>
       </c>
       <c r="P6">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q6">
-        <v>29.99999999921113</v>
+        <v>20.02025408726495</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102297</v>
+        <v>-99.52967389962163</v>
       </c>
       <c r="S6">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9735377779723634</v>
+        <v>0.9424522314355669</v>
       </c>
       <c r="O2">
-        <v>0.8500049525405783</v>
+        <v>0.850004952538732</v>
       </c>
       <c r="P2">
-        <v>0.9430709208326352</v>
+        <v>0.9419013291063386</v>
       </c>
       <c r="Q2">
-        <v>25.4997887920602</v>
+        <v>24.19268348627333</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337881</v>
+        <v>-92.65381631332913</v>
       </c>
       <c r="S2">
-        <v>152.8749772937561</v>
+        <v>150.5659672639323</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9542453261756786</v>
+        <v>0.8654795539534913</v>
       </c>
       <c r="O3">
-        <v>0.3617201835044316</v>
+        <v>0.3617201835037247</v>
       </c>
       <c r="P3">
-        <v>0.73895706023062</v>
+        <v>0.717362391094132</v>
       </c>
       <c r="Q3">
-        <v>6.762807848128173</v>
+        <v>-3.400662761283679</v>
       </c>
       <c r="R3">
-        <v>-129.0915432249184</v>
+        <v>-129.0915432241612</v>
       </c>
       <c r="S3">
-        <v>166.829267014812</v>
+        <v>152.4240958953725</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>20.75197657188305</v>
+        <v>4.558150608104192</v>
       </c>
       <c r="D4">
-        <v>18.99310347626933</v>
+        <v>2.355372012687772</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>239.6231851998697</v>
+        <v>52.63298961191624</v>
       </c>
       <c r="G4">
-        <v>219.3134680954103</v>
+        <v>27.19749331133992</v>
       </c>
       <c r="H4">
-        <v>3.55163834448742</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376319</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.8141051426070109</v>
+        <v>0.6716728149593491</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8141051426024452</v>
+        <v>0.6716728149604608</v>
       </c>
       <c r="Q4">
-        <v>-1.574490728957489</v>
+        <v>-16.93689964820451</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>178.425509270945</v>
+        <v>163.0631003512648</v>
       </c>
       <c r="T4">
-        <v>4.491848404738628</v>
+        <v>3.705973963892706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477892</v>
       </c>
       <c r="O5">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724263</v>
       </c>
       <c r="Q5">
-        <v>29.99999999049979</v>
+        <v>-16.93689964647829</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999990575</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477891</v>
       </c>
       <c r="O6">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724265</v>
       </c>
       <c r="Q6">
-        <v>29.99999999049979</v>
+        <v>-16.93689964647828</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999990575</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.092464912624774</v>
+        <v>1.056966443490338</v>
       </c>
       <c r="G2">
-        <v>-0.09202130427424153</v>
+        <v>-1.342925561278413</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.061021327659233</v>
+        <v>0.8910570420386132</v>
       </c>
       <c r="G3">
-        <v>-0.6102523680296662</v>
+        <v>-9.16867920491115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8451,22 +8451,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.711715147193376</v>
+        <v>1.309686024696609</v>
       </c>
       <c r="C4">
-        <v>59.29555206048334</v>
+        <v>45.36885473474868</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
-        <v>1.048207173903214</v>
+        <v>0.8020156209364411</v>
       </c>
       <c r="G4">
-        <v>45.00000000000013</v>
+        <v>45.00000000014394</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G5">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G6">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9735377779723634</v>
+        <v>0.9424522314355669</v>
       </c>
       <c r="O2">
-        <v>0.8500049525405783</v>
+        <v>0.850004952538732</v>
       </c>
       <c r="P2">
-        <v>0.9430709208326352</v>
+        <v>0.9419013291063386</v>
       </c>
       <c r="Q2">
-        <v>25.4997887920602</v>
+        <v>24.19268348627333</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337881</v>
+        <v>-92.65381631332913</v>
       </c>
       <c r="S2">
-        <v>152.8749772937561</v>
+        <v>150.5659672639323</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9542453261756786</v>
+        <v>0.8654795539534913</v>
       </c>
       <c r="O3">
-        <v>0.3617201835044316</v>
+        <v>0.3617201835037247</v>
       </c>
       <c r="P3">
-        <v>0.73895706023062</v>
+        <v>0.717362391094132</v>
       </c>
       <c r="Q3">
-        <v>6.762807848128173</v>
+        <v>-3.400662761283679</v>
       </c>
       <c r="R3">
-        <v>-129.0915432249184</v>
+        <v>-129.0915432241612</v>
       </c>
       <c r="S3">
-        <v>166.829267014812</v>
+        <v>152.4240958953725</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>20.75197657188305</v>
+        <v>4.558150608104192</v>
       </c>
       <c r="D4">
-        <v>18.99310347626933</v>
+        <v>2.355372012687772</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>239.6231851998697</v>
+        <v>52.63298961191624</v>
       </c>
       <c r="G4">
-        <v>219.3134680954103</v>
+        <v>27.19749331133992</v>
       </c>
       <c r="H4">
-        <v>3.55163834448742</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376319</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.8141051426070109</v>
+        <v>0.6716728149593491</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8141051426024452</v>
+        <v>0.6716728149604608</v>
       </c>
       <c r="Q4">
-        <v>-1.574490728957489</v>
+        <v>-16.93689964820451</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>178.425509270945</v>
+        <v>163.0631003512648</v>
       </c>
       <c r="T4">
-        <v>4.491848404738628</v>
+        <v>3.705973963892706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477892</v>
       </c>
       <c r="O5">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724263</v>
       </c>
       <c r="Q5">
-        <v>29.99999999049979</v>
+        <v>-16.93689964647829</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999990575</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477891</v>
       </c>
       <c r="O6">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724265</v>
       </c>
       <c r="Q6">
-        <v>29.99999999049979</v>
+        <v>-16.93689964647828</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999990575</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9955857406147312</v>
+        <v>0.9872732704743753</v>
       </c>
       <c r="O2">
-        <v>0.989646223530681</v>
+        <v>0.9581045791303407</v>
       </c>
       <c r="P2">
-        <v>0.9951603274949091</v>
+        <v>0.9742986184078002</v>
       </c>
       <c r="Q2">
-        <v>29.76304891874414</v>
+        <v>28.3548522078124</v>
       </c>
       <c r="R2">
-        <v>-90.06817904278992</v>
+        <v>-91.55789971898027</v>
       </c>
       <c r="S2">
-        <v>150.1433338404499</v>
+        <v>149.8835077627428</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9798901302928671</v>
+        <v>0.9540301184162778</v>
       </c>
       <c r="O3">
-        <v>0.9503017246666995</v>
+        <v>0.8139299031203258</v>
       </c>
       <c r="P3">
-        <v>0.9760349923144056</v>
+        <v>0.8764516590625258</v>
       </c>
       <c r="Q3">
-        <v>28.77168461450956</v>
+        <v>21.54630532481583</v>
       </c>
       <c r="R3">
-        <v>-90.49996946908374</v>
+        <v>-99.65273561736731</v>
       </c>
       <c r="S3">
-        <v>150.6346915877638</v>
+        <v>148.9519453797822</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.531615208913041</v>
+        <v>1.249557816225953</v>
       </c>
       <c r="D4">
-        <v>1.380193875591368</v>
+        <v>1.031184646681271</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.68556906321738</v>
+        <v>14.42865083132109</v>
       </c>
       <c r="G4">
-        <v>15.93710611213098</v>
+        <v>11.90709466691282</v>
       </c>
       <c r="H4">
-        <v>3.55163834448742</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376319</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.9660710651470358</v>
+        <v>0.8862366025193016</v>
       </c>
       <c r="O4">
-        <v>0.9338968266063927</v>
+        <v>0.7019303077934285</v>
       </c>
       <c r="P4">
-        <v>0.9742591513607591</v>
+        <v>0.8378278209627849</v>
       </c>
       <c r="Q4">
-        <v>28.90928717015007</v>
+        <v>19.95292512464314</v>
       </c>
       <c r="R4">
-        <v>-89.42031704770154</v>
+        <v>-97.63434507042474</v>
       </c>
       <c r="S4">
-        <v>151.3693915339348</v>
+        <v>152.0042069778074</v>
       </c>
       <c r="T4">
-        <v>1.234606942640764</v>
+        <v>1.14360122740861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191702</v>
       </c>
       <c r="O5">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992132</v>
       </c>
       <c r="P5">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677866</v>
       </c>
       <c r="Q5">
-        <v>29.99999999923366</v>
+        <v>19.95292512505613</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S5">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191705</v>
       </c>
       <c r="O6">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992134</v>
       </c>
       <c r="P6">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677866</v>
       </c>
       <c r="Q6">
-        <v>29.99999999923366</v>
+        <v>19.95292512505614</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S6">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9955857406147312</v>
+        <v>0.9872732704743753</v>
       </c>
       <c r="O2">
-        <v>0.989646223530681</v>
+        <v>0.9581045791303407</v>
       </c>
       <c r="P2">
-        <v>0.9951603274949091</v>
+        <v>0.9742986184078002</v>
       </c>
       <c r="Q2">
-        <v>29.76304891874414</v>
+        <v>28.3548522078124</v>
       </c>
       <c r="R2">
-        <v>-90.06817904278992</v>
+        <v>-91.55789971898027</v>
       </c>
       <c r="S2">
-        <v>150.1433338404499</v>
+        <v>149.8835077627428</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9798901302928671</v>
+        <v>0.9540301184162778</v>
       </c>
       <c r="O3">
-        <v>0.9503017246666995</v>
+        <v>0.8139299031203258</v>
       </c>
       <c r="P3">
-        <v>0.9760349923144056</v>
+        <v>0.8764516590625258</v>
       </c>
       <c r="Q3">
-        <v>28.77168461450956</v>
+        <v>21.54630532481583</v>
       </c>
       <c r="R3">
-        <v>-90.49996946908374</v>
+        <v>-99.65273561736731</v>
       </c>
       <c r="S3">
-        <v>150.6346915877638</v>
+        <v>148.9519453797822</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.531615208913041</v>
+        <v>1.249557816225953</v>
       </c>
       <c r="D4">
-        <v>1.380193875591368</v>
+        <v>1.031184646681271</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.68556906321738</v>
+        <v>14.42865083132109</v>
       </c>
       <c r="G4">
-        <v>15.93710611213098</v>
+        <v>11.90709466691282</v>
       </c>
       <c r="H4">
-        <v>3.55163834448742</v>
+        <v>3.551638344487404</v>
       </c>
       <c r="I4">
-        <v>0.7246530378263</v>
+        <v>0.7246530378264683</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376319</v>
+        <v>1.113751880246191</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768198</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391405</v>
+        <v>1.11375188023326</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637079</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.9660710651470358</v>
+        <v>0.8862366025193016</v>
       </c>
       <c r="O4">
-        <v>0.9338968266063927</v>
+        <v>0.7019303077934285</v>
       </c>
       <c r="P4">
-        <v>0.9742591513607591</v>
+        <v>0.8378278209627849</v>
       </c>
       <c r="Q4">
-        <v>28.90928717015007</v>
+        <v>19.95292512464314</v>
       </c>
       <c r="R4">
-        <v>-89.42031704770154</v>
+        <v>-97.63434507042474</v>
       </c>
       <c r="S4">
-        <v>151.3693915339348</v>
+        <v>152.0042069778074</v>
       </c>
       <c r="T4">
-        <v>1.234606942640764</v>
+        <v>1.14360122740861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191702</v>
       </c>
       <c r="O5">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992132</v>
       </c>
       <c r="P5">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677866</v>
       </c>
       <c r="Q5">
-        <v>29.99999999923366</v>
+        <v>19.95292512505613</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S5">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191705</v>
       </c>
       <c r="O6">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992134</v>
       </c>
       <c r="P6">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677866</v>
       </c>
       <c r="Q6">
-        <v>29.99999999923366</v>
+        <v>19.95292512505614</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S6">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.092464912624774</v>
+        <v>1.056966443490338</v>
       </c>
       <c r="G2">
-        <v>-0.09202130427424153</v>
+        <v>-1.342925561278413</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.061021327659233</v>
+        <v>0.8910570420386132</v>
       </c>
       <c r="G3">
-        <v>-0.6102523680296662</v>
+        <v>-9.16867920491115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9757,22 +9757,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.711715147193376</v>
+        <v>1.309686024696609</v>
       </c>
       <c r="C4">
-        <v>59.29555206048334</v>
+        <v>45.36885473474868</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
-        <v>1.048207173903214</v>
+        <v>0.8020156209364411</v>
       </c>
       <c r="G4">
-        <v>45.00000000000013</v>
+        <v>45.00000000014394</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G5">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G6">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.850004952529848</v>
+        <v>0.850004952531329</v>
       </c>
       <c r="G2">
-        <v>-2.653816313383118</v>
+        <v>-2.653816313408794</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.361720183494426</v>
+        <v>0.3617201835011323</v>
       </c>
       <c r="G3">
-        <v>-39.09154322576343</v>
+        <v>-39.09154322526825</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9908,22 +9908,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.82241822205426</v>
+        <v>3.601610081969431</v>
       </c>
       <c r="C4">
-        <v>790.5917582436749</v>
+        <v>124.7634330204672</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.29166987222217</v>
+        <v>69.67231643316967</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.850004952529848</v>
+        <v>0.850004952531329</v>
       </c>
       <c r="G2">
-        <v>-2.653816313383118</v>
+        <v>-2.653816313408794</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.361720183494426</v>
+        <v>0.3617201835011323</v>
       </c>
       <c r="G3">
-        <v>-39.09154322576343</v>
+        <v>-39.09154322526825</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10059,22 +10059,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.82241822205426</v>
+        <v>3.601610081969431</v>
       </c>
       <c r="C4">
-        <v>790.5917582436749</v>
+        <v>124.7634330204672</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.29166987222217</v>
+        <v>69.67231643316967</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9896462235301428</v>
+        <v>0.9581045791269167</v>
       </c>
       <c r="G2">
-        <v>-0.06817904279359996</v>
+        <v>-1.557899718992042</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9503017246662551</v>
+        <v>0.8139299031165271</v>
       </c>
       <c r="G3">
-        <v>-0.4999694690879498</v>
+        <v>-9.652735617430418</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10210,22 +10210,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.525047131727278</v>
+        <v>1.146247392719871</v>
       </c>
       <c r="C4">
-        <v>52.82918232177664</v>
+        <v>39.70717444468345</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
-        <v>0.9338968266059345</v>
+        <v>0.7019303077896065</v>
       </c>
       <c r="G4">
-        <v>44.99999999999578</v>
+        <v>44.99999999986812</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G5">
-        <v>-1.030471009927051E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G6">
-        <v>-1.030471009927052E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9896462235301428</v>
+        <v>0.9581045791269167</v>
       </c>
       <c r="G2">
-        <v>-0.06817904279359996</v>
+        <v>-1.557899718992042</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9503017246662551</v>
+        <v>0.8139299031165271</v>
       </c>
       <c r="G3">
-        <v>-0.4999694690879498</v>
+        <v>-9.652735617430418</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10361,22 +10361,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.525047131727278</v>
+        <v>1.146247392719871</v>
       </c>
       <c r="C4">
-        <v>52.82918232177664</v>
+        <v>39.70717444468345</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
-        <v>0.9338968266059345</v>
+        <v>0.7019303077896065</v>
       </c>
       <c r="G4">
-        <v>44.99999999999578</v>
+        <v>44.99999999986812</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G5">
-        <v>-1.030471009927051E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G6">
-        <v>-1.030471009927052E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070094227534568</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576223</v>
+        <v>0.9380319009574459</v>
       </c>
       <c r="P2">
-        <v>1.053494350469733</v>
+        <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116736208</v>
+        <v>25.98965116739707</v>
       </c>
       <c r="R2">
-        <v>-91.13019952207824</v>
+        <v>-91.13019952201601</v>
       </c>
       <c r="S2">
-        <v>153.5693903185904</v>
+        <v>153.5693903185486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214682102</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037548509</v>
+        <v>0.2917056037512941</v>
       </c>
       <c r="P3">
-        <v>0.8906876332707026</v>
+        <v>0.8906876332644384</v>
       </c>
       <c r="Q3">
-        <v>7.091324389127895</v>
+        <v>7.091324389062534</v>
       </c>
       <c r="R3">
-        <v>-119.171377355886</v>
+        <v>-119.1713773550799</v>
       </c>
       <c r="S3">
-        <v>171.7794727728209</v>
+        <v>171.7794727726615</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>31.26491097024306</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="D4">
-        <v>31.26491097024306</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="G4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567628</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.7325309365759302</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802833</v>
+        <v>0.6277319163571218</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680183</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834055</v>
+        <v>0.6277319163639651</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.898438697960011</v>
       </c>
       <c r="N4">
-        <v>0.952627964818799</v>
+        <v>0.9526279648032094</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648133815</v>
+        <v>0.9526279648047558</v>
       </c>
       <c r="Q4">
-        <v>3.815323384907982E-11</v>
+        <v>-1.253133125492379E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999466</v>
+        <v>-179.9999999999812</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942856</v>
       </c>
       <c r="O5">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136794</v>
       </c>
       <c r="Q5">
-        <v>29.99999998571504</v>
+        <v>4.605063358393287E-10</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942856</v>
       </c>
       <c r="O6">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136793</v>
       </c>
       <c r="Q6">
-        <v>29.99999998571504</v>
+        <v>4.605066884408088E-10</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_2_bus_ward34_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_2_bus_ward34_impedance.xlsx
@@ -761,7 +761,7 @@
         <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739707</v>
+        <v>25.98965116739708</v>
       </c>
       <c r="R2">
         <v>-91.13019952201601</v>
@@ -814,16 +814,16 @@
         <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512941</v>
+        <v>0.291705603751294</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644384</v>
+        <v>0.8906876332644386</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062534</v>
+        <v>7.091324389062555</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.17137735508</v>
       </c>
       <c r="S3">
         <v>171.7794727726615</v>
@@ -837,49 +837,49 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.70915442393707</v>
+        <v>3.709154423937069</v>
       </c>
       <c r="D4">
-        <v>3.70915442393707</v>
+        <v>3.709154423937069</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251916</v>
       </c>
       <c r="G4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251916</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.382454568180948</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>3.227548034938631</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163569915</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.89843869794807</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640495</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032094</v>
+        <v>0.9526279648032097</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047558</v>
+        <v>0.952627964804756</v>
       </c>
       <c r="Q4">
-        <v>-1.253133125492379E-11</v>
+        <v>-1.250178344372813E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942856</v>
+        <v>0.9526279647942858</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136794</v>
+        <v>0.9526279648136797</v>
       </c>
       <c r="Q5">
-        <v>4.605063358393287E-10</v>
+        <v>4.605321550943696E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -988,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942856</v>
+        <v>0.9526279647942858</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136793</v>
+        <v>0.9526279648136797</v>
       </c>
       <c r="Q6">
-        <v>4.605066884408088E-10</v>
+        <v>4.60530213608286E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>0.761777901871072</v>
+        <v>0.7617779018710719</v>
       </c>
       <c r="P3">
         <v>0.9348070984869523</v>
@@ -1219,25 +1219,25 @@
         <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.382454568180948</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>3.227548034938631</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163569915</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.89843869794807</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640495</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209833</v>
       </c>
       <c r="O4">
         <v>0.6233452632551814</v>
@@ -1246,7 +1246,7 @@
         <v>0.9229411060011539</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943073</v>
+        <v>16.25665454943074</v>
       </c>
       <c r="R4">
         <v>-104.9129785376843</v>
@@ -1299,10 +1299,10 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568746</v>
+        <v>0.6233452632568743</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067907</v>
       </c>
       <c r="Q5">
         <v>16.25665454962341</v>
@@ -1361,13 +1361,13 @@
         <v>0.6233452632568746</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067907</v>
       </c>
       <c r="Q6">
         <v>16.25665454962341</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366567</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S6">
         <v>160.9543898286222</v>
@@ -1548,7 +1548,7 @@
         <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>0.761777901871072</v>
+        <v>0.7617779018710719</v>
       </c>
       <c r="P3">
         <v>0.9348070984869523</v>
@@ -1586,25 +1586,25 @@
         <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.382454568180948</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>3.227548034938631</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163569915</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.89843869794807</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640495</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209833</v>
       </c>
       <c r="O4">
         <v>0.6233452632551814</v>
@@ -1613,7 +1613,7 @@
         <v>0.9229411060011539</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943073</v>
+        <v>16.25665454943074</v>
       </c>
       <c r="R4">
         <v>-104.9129785376843</v>
@@ -1666,10 +1666,10 @@
         <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568746</v>
+        <v>0.6233452632568743</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067907</v>
       </c>
       <c r="Q5">
         <v>16.25665454962341</v>
@@ -1728,13 +1728,13 @@
         <v>0.6233452632568746</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067907</v>
       </c>
       <c r="Q6">
         <v>16.25665454962341</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366567</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S6">
         <v>160.9543898286222</v>
@@ -1862,7 +1862,7 @@
         <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808851</v>
+        <v>25.60992326808852</v>
       </c>
       <c r="R2">
         <v>-92.65381631331513</v>
@@ -1912,19 +1912,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370794</v>
+        <v>0.9900703401370787</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030114</v>
+        <v>0.3617201835030113</v>
       </c>
       <c r="P3">
-        <v>0.764971546641112</v>
+        <v>0.7649715466411113</v>
       </c>
       <c r="Q3">
-        <v>8.15088868427442</v>
+        <v>8.150888684274459</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241894</v>
+        <v>-129.0915432241893</v>
       </c>
       <c r="S3">
         <v>169.4262793833645</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="D4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1953,40 +1953,40 @@
         <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.091511901101003</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>3.212233813552835</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246068</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.006397543767952</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233344</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745577</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880056</v>
+        <v>0.8660254037880049</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883343</v>
+        <v>0.8660254037883338</v>
       </c>
       <c r="Q4">
-        <v>1.722595345440869E-10</v>
+        <v>1.723187011837328E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998194</v>
+        <v>179.9999999998195</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798931</v>
+        <v>0.8660254037798923</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964464</v>
       </c>
       <c r="Q5">
-        <v>1.080488443850675E-09</v>
+        <v>1.080544961694648E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798931</v>
+        <v>0.8660254037798923</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964464</v>
       </c>
       <c r="Q6">
-        <v>1.080506644799812E-09</v>
+        <v>1.080551986090838E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808851</v>
+        <v>25.60992326808852</v>
       </c>
       <c r="R2">
         <v>-92.65381631331513</v>
@@ -2279,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401370794</v>
+        <v>0.9900703401370787</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030114</v>
+        <v>0.3617201835030113</v>
       </c>
       <c r="P3">
-        <v>0.764971546641112</v>
+        <v>0.7649715466411113</v>
       </c>
       <c r="Q3">
-        <v>8.15088868427442</v>
+        <v>8.150888684274459</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241894</v>
+        <v>-129.0915432241893</v>
       </c>
       <c r="S3">
         <v>169.4262793833645</v>
@@ -2305,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="D4">
-        <v>3.119085825515527</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2320,40 +2320,40 @@
         <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.091511901101003</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>3.212233813552835</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246068</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.006397543767952</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233344</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745577</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880056</v>
+        <v>0.8660254037880049</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883343</v>
+        <v>0.8660254037883338</v>
       </c>
       <c r="Q4">
-        <v>1.722595345440869E-10</v>
+        <v>1.723187011837328E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998194</v>
+        <v>179.9999999998195</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798931</v>
+        <v>0.8660254037798923</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964464</v>
       </c>
       <c r="Q5">
-        <v>1.080488443850675E-09</v>
+        <v>1.080544961694648E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798931</v>
+        <v>0.8660254037798923</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964467</v>
+        <v>0.8660254037964464</v>
       </c>
       <c r="Q6">
-        <v>1.080506644799812E-09</v>
+        <v>1.080551986090838E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359253</v>
+        <v>0.9991077190359252</v>
       </c>
       <c r="O2">
         <v>0.9333641900095898</v>
@@ -2596,10 +2596,10 @@
         <v>0.9681777323222119</v>
       </c>
       <c r="Q2">
-        <v>27.8246974452445</v>
+        <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182751169</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -2649,13 +2649,13 @@
         <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566593</v>
+        <v>0.708687695956659</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941326</v>
+        <v>0.8449321159941323</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474866</v>
+        <v>19.61176266474868</v>
       </c>
       <c r="R3">
         <v>-105.2709110729077</v>
@@ -2687,34 +2687,34 @@
         <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.091511901101003</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>3.212233813552835</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246068</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.006397543767952</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233344</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745577</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119605</v>
+        <v>0.9573399675119602</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775459</v>
+        <v>0.536799561077546</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863314</v>
+        <v>0.8529812840863313</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155591</v>
+        <v>15.93288697155594</v>
       </c>
       <c r="R4">
         <v>-101.7238138495564</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083645</v>
       </c>
       <c r="O5">
         <v>0.5367995610863939</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931511</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196761</v>
+        <v>15.93288697196765</v>
       </c>
       <c r="R5">
         <v>-101.7238138481949</v>
@@ -2823,16 +2823,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083644</v>
       </c>
       <c r="O6">
         <v>0.536799561086394</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931512</v>
+        <v>0.8529812840931511</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196761</v>
+        <v>15.93288697196765</v>
       </c>
       <c r="R6">
         <v>-101.7238138481949</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359253</v>
+        <v>0.9991077190359252</v>
       </c>
       <c r="O2">
         <v>0.9333641900095898</v>
@@ -2963,10 +2963,10 @@
         <v>0.9681777323222119</v>
       </c>
       <c r="Q2">
-        <v>27.8246974452445</v>
+        <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182751169</v>
       </c>
       <c r="S2">
         <v>151.2048467246548</v>
@@ -3016,13 +3016,13 @@
         <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566593</v>
+        <v>0.708687695956659</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941326</v>
+        <v>0.8449321159941323</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474866</v>
+        <v>19.61176266474868</v>
       </c>
       <c r="R3">
         <v>-105.2709110729077</v>
@@ -3054,34 +3054,34 @@
         <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.091511901101003</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>3.212233813552835</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246068</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.006397543767952</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233344</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745577</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119605</v>
+        <v>0.9573399675119602</v>
       </c>
       <c r="O4">
-        <v>0.5367995610775459</v>
+        <v>0.536799561077546</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863314</v>
+        <v>0.8529812840863313</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155591</v>
+        <v>15.93288697155594</v>
       </c>
       <c r="R4">
         <v>-101.7238138495564</v>
@@ -3131,16 +3131,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083645</v>
       </c>
       <c r="O5">
         <v>0.5367995610863939</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931511</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196761</v>
+        <v>15.93288697196765</v>
       </c>
       <c r="R5">
         <v>-101.7238138481949</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083647</v>
+        <v>0.9573399675083644</v>
       </c>
       <c r="O6">
         <v>0.536799561086394</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931512</v>
+        <v>0.8529812840931511</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196761</v>
+        <v>15.93288697196765</v>
       </c>
       <c r="R6">
         <v>-101.7238138481949</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9861308108586486</v>
+        <v>1.021395477693091</v>
       </c>
       <c r="O2">
-        <v>1.100000023847537</v>
+        <v>1.10000002384589</v>
       </c>
       <c r="P2">
-        <v>1.028855199037967</v>
+        <v>1.058300389111878</v>
       </c>
       <c r="Q2">
-        <v>31.20178199995176</v>
+        <v>30.28641974232224</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>145.0676635123766</v>
+        <v>146.4498834727606</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5017839789834513</v>
+        <v>0.6862656146981622</v>
       </c>
       <c r="O3">
-        <v>1.100000023852248</v>
+        <v>1.100000023849746</v>
       </c>
       <c r="P3">
-        <v>0.8775850755570955</v>
+        <v>0.9574801413417584</v>
       </c>
       <c r="Q3">
-        <v>38.79388502419479</v>
+        <v>30.40837994519175</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S3">
-        <v>116.4647194486009</v>
+        <v>128.1808835065928</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5.270261429553182</v>
+        <v>3.581042783636712</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>60.85573710104463</v>
+        <v>41.35032030224446</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>4.382454568180989</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756871</v>
+        <v>3.227548034938389</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686238</v>
+        <v>0.6277319162689035</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697960075</v>
       </c>
       <c r="L4">
-        <v>0.62773191636399</v>
+        <v>0.627731916363956</v>
       </c>
       <c r="M4">
-        <v>2.898438697959878</v>
+        <v>2.898438697959809</v>
       </c>
       <c r="N4">
-        <v>0.4179741834732568</v>
+        <v>0.5850744614985712</v>
       </c>
       <c r="O4">
-        <v>1.100000023852248</v>
+        <v>1.100000023849746</v>
       </c>
       <c r="P4">
-        <v>0.7534809345991491</v>
+        <v>0.8588010656688666</v>
       </c>
       <c r="Q4">
-        <v>62.67922138001573</v>
+        <v>39.27170175105142</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999665</v>
+        <v>-89.99999999999719</v>
       </c>
       <c r="S4">
-        <v>104.7500506116007</v>
+        <v>121.8303776519869</v>
       </c>
       <c r="T4">
-        <v>5.270261429553181</v>
+        <v>3.581042783636712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4179741834901594</v>
+        <v>0.5850744615086089</v>
       </c>
       <c r="O5">
-        <v>1.100000023852248</v>
+        <v>1.100000023849746</v>
       </c>
       <c r="P5">
-        <v>0.7534809345867743</v>
+        <v>0.8588010656620283</v>
       </c>
       <c r="Q5">
-        <v>62.67922137998031</v>
+        <v>39.27170175159824</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999682</v>
+        <v>-89.99999999999733</v>
       </c>
       <c r="S5">
-        <v>104.7500506124762</v>
+        <v>121.8303776526025</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4179741834901595</v>
+        <v>0.5850744615086089</v>
       </c>
       <c r="O6">
-        <v>1.100000023852248</v>
+        <v>1.100000023849746</v>
       </c>
       <c r="P6">
-        <v>0.7534809345867743</v>
+        <v>0.8588010656620284</v>
       </c>
       <c r="Q6">
-        <v>62.67922137998029</v>
+        <v>39.27170175159824</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999683</v>
+        <v>-89.99999999999733</v>
       </c>
       <c r="S6">
-        <v>104.7500506124762</v>
+        <v>121.8303776526025</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9861308108586486</v>
+        <v>1.021395477693091</v>
       </c>
       <c r="O2">
-        <v>1.100000023847537</v>
+        <v>1.10000002384589</v>
       </c>
       <c r="P2">
-        <v>1.028855199037967</v>
+        <v>1.058300389111878</v>
       </c>
       <c r="Q2">
-        <v>31.20178199995176</v>
+        <v>30.28641974232224</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>145.0676635123766</v>
+        <v>146.4498834727606</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5017839789834513</v>
+        <v>0.6862656146981622</v>
       </c>
       <c r="O3">
-        <v>1.100000023852248</v>
+        <v>1.100000023849746</v>
       </c>
       <c r="P3">
-        <v>0.8775850755570955</v>
+        <v>0.9574801413417584</v>
       </c>
       <c r="Q3">
-        <v>38.79388502419479</v>
+        <v>30.40837994519175</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S3">
-        <v>116.4647194486009</v>
+        <v>128.1808835065928</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5.270261429553182</v>
+        <v>3.581042783636712</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>60.85573710104463</v>
+        <v>41.35032030224446</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>4.382454568180989</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756871</v>
+        <v>3.227548034938389</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686238</v>
+        <v>0.6277319162689035</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697960075</v>
       </c>
       <c r="L4">
-        <v>0.62773191636399</v>
+        <v>0.627731916363956</v>
       </c>
       <c r="M4">
-        <v>2.898438697959878</v>
+        <v>2.898438697959809</v>
       </c>
       <c r="N4">
-        <v>0.4179741834732568</v>
+        <v>0.5850744614985712</v>
       </c>
       <c r="O4">
-        <v>1.100000023852248</v>
+        <v>1.100000023849746</v>
       </c>
       <c r="P4">
-        <v>0.7534809345991491</v>
+        <v>0.8588010656688666</v>
       </c>
       <c r="Q4">
-        <v>62.67922138001573</v>
+        <v>39.27170175105142</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999665</v>
+        <v>-89.99999999999719</v>
       </c>
       <c r="S4">
-        <v>104.7500506116007</v>
+        <v>121.8303776519869</v>
       </c>
       <c r="T4">
-        <v>5.270261429553181</v>
+        <v>3.581042783636712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4179741834901594</v>
+        <v>0.5850744615086089</v>
       </c>
       <c r="O5">
-        <v>1.100000023852248</v>
+        <v>1.100000023849746</v>
       </c>
       <c r="P5">
-        <v>0.7534809345867743</v>
+        <v>0.8588010656620283</v>
       </c>
       <c r="Q5">
-        <v>62.67922137998031</v>
+        <v>39.27170175159824</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999682</v>
+        <v>-89.99999999999733</v>
       </c>
       <c r="S5">
-        <v>104.7500506124762</v>
+        <v>121.8303776526025</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4179741834901595</v>
+        <v>0.5850744615086089</v>
       </c>
       <c r="O6">
-        <v>1.100000023852248</v>
+        <v>1.100000023849746</v>
       </c>
       <c r="P6">
-        <v>0.7534809345867743</v>
+        <v>0.8588010656620284</v>
       </c>
       <c r="Q6">
-        <v>62.67922137998029</v>
+        <v>39.27170175159824</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999683</v>
+        <v>-89.99999999999733</v>
       </c>
       <c r="S6">
-        <v>104.7500506124762</v>
+        <v>121.8303776526025</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070287335385026</v>
+        <v>1.073632485244518</v>
       </c>
       <c r="O2">
-        <v>1.100000023843436</v>
+        <v>1.100000023843262</v>
       </c>
       <c r="P2">
-        <v>1.087432713371585</v>
+        <v>1.089058291039491</v>
       </c>
       <c r="Q2">
-        <v>29.87894597690854</v>
+        <v>29.87803639227534</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5843831011227</v>
+        <v>148.7383131991097</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.94499511013698</v>
+        <v>0.9625257521716303</v>
       </c>
       <c r="O3">
-        <v>1.100000023845164</v>
+        <v>1.100000023844815</v>
       </c>
       <c r="P3">
-        <v>1.049816937116054</v>
+        <v>1.055801143921107</v>
       </c>
       <c r="Q3">
-        <v>28.77922907069108</v>
+        <v>28.84938670098711</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S3">
-        <v>142.0890444401773</v>
+        <v>142.9880497907291</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.354590696141222</v>
+        <v>1.203128233066284</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.64146606117794</v>
+        <v>13.89252818460916</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>4.382454568180989</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756871</v>
+        <v>3.227548034938389</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686238</v>
+        <v>0.6277319162689035</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697960075</v>
       </c>
       <c r="L4">
-        <v>0.62773191636399</v>
+        <v>0.627731916363956</v>
       </c>
       <c r="M4">
-        <v>2.898438697959878</v>
+        <v>2.898438697959809</v>
       </c>
       <c r="N4">
-        <v>0.8993131324624146</v>
+        <v>0.9216765742933982</v>
       </c>
       <c r="O4">
-        <v>1.100000023845164</v>
+        <v>1.100000023844815</v>
       </c>
       <c r="P4">
-        <v>1.00754439640636</v>
+        <v>1.018050154696821</v>
       </c>
       <c r="Q4">
-        <v>30.48183270043303</v>
+        <v>30.30120365940318</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999669</v>
       </c>
       <c r="S4">
-        <v>140.283523874082</v>
+        <v>141.4121480134063</v>
       </c>
       <c r="T4">
-        <v>1.354590696141222</v>
+        <v>1.203128233066284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8993131324654359</v>
+        <v>0.9216765742960434</v>
       </c>
       <c r="O5">
-        <v>1.100000023845164</v>
+        <v>1.100000023844815</v>
       </c>
       <c r="P5">
-        <v>1.007544396404445</v>
+        <v>1.018050154695153</v>
       </c>
       <c r="Q5">
-        <v>30.48183270063194</v>
+        <v>30.30120365957783</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999675</v>
       </c>
       <c r="S5">
-        <v>140.2835238743037</v>
+        <v>141.4121480136021</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8993131324654359</v>
+        <v>0.9216765742960435</v>
       </c>
       <c r="O6">
-        <v>1.100000023845164</v>
+        <v>1.100000023844815</v>
       </c>
       <c r="P6">
-        <v>1.007544396404445</v>
+        <v>1.018050154695153</v>
       </c>
       <c r="Q6">
-        <v>30.48183270063194</v>
+        <v>30.30120365957783</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999675</v>
       </c>
       <c r="S6">
-        <v>140.2835238743037</v>
+        <v>141.4121480136021</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070287335385026</v>
+        <v>1.073632485244518</v>
       </c>
       <c r="O2">
-        <v>1.100000023843436</v>
+        <v>1.100000023843262</v>
       </c>
       <c r="P2">
-        <v>1.087432713371585</v>
+        <v>1.089058291039491</v>
       </c>
       <c r="Q2">
-        <v>29.87894597690854</v>
+        <v>29.87803639227534</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5843831011227</v>
+        <v>148.7383131991097</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.94499511013698</v>
+        <v>0.9625257521716303</v>
       </c>
       <c r="O3">
-        <v>1.100000023845164</v>
+        <v>1.100000023844815</v>
       </c>
       <c r="P3">
-        <v>1.049816937116054</v>
+        <v>1.055801143921107</v>
       </c>
       <c r="Q3">
-        <v>28.77922907069108</v>
+        <v>28.84938670098711</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S3">
-        <v>142.0890444401773</v>
+        <v>142.9880497907291</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.354590696141222</v>
+        <v>1.203128233066284</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.64146606117794</v>
+        <v>13.89252818460916</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>4.382454568180989</v>
       </c>
       <c r="I4">
-        <v>0.7325309365756871</v>
+        <v>3.227548034938389</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686238</v>
+        <v>0.6277319162689035</v>
       </c>
       <c r="K4">
-        <v>2.898438697960062</v>
+        <v>2.898438697960075</v>
       </c>
       <c r="L4">
-        <v>0.62773191636399</v>
+        <v>0.627731916363956</v>
       </c>
       <c r="M4">
-        <v>2.898438697959878</v>
+        <v>2.898438697959809</v>
       </c>
       <c r="N4">
-        <v>0.8993131324624146</v>
+        <v>0.9216765742933982</v>
       </c>
       <c r="O4">
-        <v>1.100000023845164</v>
+        <v>1.100000023844815</v>
       </c>
       <c r="P4">
-        <v>1.00754439640636</v>
+        <v>1.018050154696821</v>
       </c>
       <c r="Q4">
-        <v>30.48183270043303</v>
+        <v>30.30120365940318</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999669</v>
       </c>
       <c r="S4">
-        <v>140.283523874082</v>
+        <v>141.4121480134063</v>
       </c>
       <c r="T4">
-        <v>1.354590696141222</v>
+        <v>1.203128233066284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8993131324654359</v>
+        <v>0.9216765742960434</v>
       </c>
       <c r="O5">
-        <v>1.100000023845164</v>
+        <v>1.100000023844815</v>
       </c>
       <c r="P5">
-        <v>1.007544396404445</v>
+        <v>1.018050154695153</v>
       </c>
       <c r="Q5">
-        <v>30.48183270063194</v>
+        <v>30.30120365957783</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999675</v>
       </c>
       <c r="S5">
-        <v>140.2835238743037</v>
+        <v>141.4121480136021</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8993131324654359</v>
+        <v>0.9216765742960435</v>
       </c>
       <c r="O6">
-        <v>1.100000023845164</v>
+        <v>1.100000023844815</v>
       </c>
       <c r="P6">
-        <v>1.007544396404445</v>
+        <v>1.018050154695153</v>
       </c>
       <c r="Q6">
-        <v>30.48183270063194</v>
+        <v>30.30120365957783</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999658</v>
+        <v>-89.99999999999675</v>
       </c>
       <c r="S6">
-        <v>140.2835238743037</v>
+        <v>141.4121480136021</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9028326587833732</v>
+        <v>0.9307404166840169</v>
       </c>
       <c r="O2">
-        <v>0.9999999999953423</v>
+        <v>0.9999999999965737</v>
       </c>
       <c r="P2">
-        <v>0.9626941529704611</v>
+        <v>0.974109480060446</v>
       </c>
       <c r="Q2">
-        <v>29.46991355217288</v>
+        <v>29.52657724596219</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>144.7337965372936</v>
+        <v>146.2415427528022</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5363499856580267</v>
+        <v>0.6693614553946974</v>
       </c>
       <c r="O3">
-        <v>1.00000000000032</v>
+        <v>1.000000000000116</v>
       </c>
       <c r="P3">
-        <v>0.9313780817015812</v>
+        <v>0.9356465681987366</v>
       </c>
       <c r="Q3">
-        <v>23.06203797024838</v>
+        <v>25.32350609422229</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999969</v>
+        <v>-89.99999999999723</v>
       </c>
       <c r="S3">
-        <v>121.9949494734441</v>
+        <v>130.2898811246781</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.902567407462479</v>
+        <v>2.788672770134356</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>45.06296686458244</v>
+        <v>32.200819490377</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.55163834448745</v>
+        <v>6.091511901101051</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262186</v>
+        <v>3.21223381355258</v>
       </c>
       <c r="J4">
-        <v>1.113751880274868</v>
+        <v>1.113751880275138</v>
       </c>
       <c r="K4">
-        <v>3.00639754374561</v>
+        <v>3.006397543745623</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233228</v>
       </c>
       <c r="M4">
-        <v>3.006397543745379</v>
+        <v>3.006397543745307</v>
       </c>
       <c r="N4">
-        <v>0.3976035367747505</v>
+        <v>0.5613379243674642</v>
       </c>
       <c r="O4">
-        <v>1.00000000000032</v>
+        <v>1.000000000000116</v>
       </c>
       <c r="P4">
-        <v>0.7694482201421926</v>
+        <v>0.8036862740320487</v>
       </c>
       <c r="Q4">
-        <v>45.38254385680958</v>
+        <v>36.58864539290921</v>
       </c>
       <c r="R4">
-        <v>-89.999999999997</v>
+        <v>-89.99999999999731</v>
       </c>
       <c r="S4">
-        <v>111.2809607241676</v>
+        <v>124.1120839936268</v>
       </c>
       <c r="T4">
-        <v>3.902567407462479</v>
+        <v>2.788672770134356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3976035367946174</v>
+        <v>0.5613379243811943</v>
       </c>
       <c r="O5">
-        <v>1.00000000000032</v>
+        <v>1.000000000000116</v>
       </c>
       <c r="P5">
-        <v>0.7694482201323417</v>
+        <v>0.8036862740276015</v>
       </c>
       <c r="Q5">
-        <v>45.3825438570837</v>
+        <v>36.58864539330273</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999753</v>
       </c>
       <c r="S5">
-        <v>111.2809607254598</v>
+        <v>124.1120839945926</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3976035367946174</v>
+        <v>0.5613379243811945</v>
       </c>
       <c r="O6">
-        <v>1.00000000000032</v>
+        <v>1.000000000000116</v>
       </c>
       <c r="P6">
-        <v>0.7694482201323417</v>
+        <v>0.8036862740276016</v>
       </c>
       <c r="Q6">
-        <v>45.38254385708369</v>
+        <v>36.58864539330272</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999753</v>
       </c>
       <c r="S6">
-        <v>111.2809607254598</v>
+        <v>124.1120839945926</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9028326587833732</v>
+        <v>0.9307404166840169</v>
       </c>
       <c r="O2">
-        <v>0.9999999999953423</v>
+        <v>0.9999999999965737</v>
       </c>
       <c r="P2">
-        <v>0.9626941529704611</v>
+        <v>0.974109480060446</v>
       </c>
       <c r="Q2">
-        <v>29.46991355217288</v>
+        <v>29.52657724596219</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>144.7337965372936</v>
+        <v>146.2415427528022</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5363499856580267</v>
+        <v>0.6693614553946974</v>
       </c>
       <c r="O3">
-        <v>1.00000000000032</v>
+        <v>1.000000000000116</v>
       </c>
       <c r="P3">
-        <v>0.9313780817015812</v>
+        <v>0.9356465681987366</v>
       </c>
       <c r="Q3">
-        <v>23.06203797024838</v>
+        <v>25.32350609422229</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999969</v>
+        <v>-89.99999999999723</v>
       </c>
       <c r="S3">
-        <v>121.9949494734441</v>
+        <v>130.2898811246781</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.902567407462479</v>
+        <v>2.788672770134356</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>45.06296686458244</v>
+        <v>32.200819490377</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.55163834448745</v>
+        <v>6.091511901101051</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262186</v>
+        <v>3.21223381355258</v>
       </c>
       <c r="J4">
-        <v>1.113751880274868</v>
+        <v>1.113751880275138</v>
       </c>
       <c r="K4">
-        <v>3.00639754374561</v>
+        <v>3.006397543745623</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233228</v>
       </c>
       <c r="M4">
-        <v>3.006397543745379</v>
+        <v>3.006397543745307</v>
       </c>
       <c r="N4">
-        <v>0.3976035367747505</v>
+        <v>0.5613379243674642</v>
       </c>
       <c r="O4">
-        <v>1.00000000000032</v>
+        <v>1.000000000000116</v>
       </c>
       <c r="P4">
-        <v>0.7694482201421926</v>
+        <v>0.8036862740320487</v>
       </c>
       <c r="Q4">
-        <v>45.38254385680958</v>
+        <v>36.58864539290921</v>
       </c>
       <c r="R4">
-        <v>-89.999999999997</v>
+        <v>-89.99999999999731</v>
       </c>
       <c r="S4">
-        <v>111.2809607241676</v>
+        <v>124.1120839936268</v>
       </c>
       <c r="T4">
-        <v>3.902567407462479</v>
+        <v>2.788672770134356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3976035367946174</v>
+        <v>0.5613379243811943</v>
       </c>
       <c r="O5">
-        <v>1.00000000000032</v>
+        <v>1.000000000000116</v>
       </c>
       <c r="P5">
-        <v>0.7694482201323417</v>
+        <v>0.8036862740276015</v>
       </c>
       <c r="Q5">
-        <v>45.3825438570837</v>
+        <v>36.58864539330273</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999753</v>
       </c>
       <c r="S5">
-        <v>111.2809607254598</v>
+        <v>124.1120839945926</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3976035367946174</v>
+        <v>0.5613379243811945</v>
       </c>
       <c r="O6">
-        <v>1.00000000000032</v>
+        <v>1.000000000000116</v>
       </c>
       <c r="P6">
-        <v>0.7694482201323417</v>
+        <v>0.8036862740276016</v>
       </c>
       <c r="Q6">
-        <v>45.38254385708369</v>
+        <v>36.58864539330272</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999753</v>
       </c>
       <c r="S6">
-        <v>111.2809607254598</v>
+        <v>124.1120839945926</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9714894419843783</v>
+        <v>0.9745145513490671</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985384</v>
+        <v>0.999999999998688</v>
       </c>
       <c r="P2">
-        <v>0.9895711899749619</v>
+        <v>0.9907229001483948</v>
       </c>
       <c r="Q2">
-        <v>29.76366881512976</v>
+        <v>29.78408029000811</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.453800399059</v>
+        <v>148.616906483996</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8636183456042644</v>
+        <v>0.8780819868748458</v>
       </c>
       <c r="O3">
-        <v>0.9999999999999917</v>
+        <v>0.9999999999999872</v>
       </c>
       <c r="P3">
-        <v>0.9636262065017435</v>
+        <v>0.9670105523070882</v>
       </c>
       <c r="Q3">
-        <v>28.23968561661016</v>
+        <v>28.42390548950169</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999669</v>
       </c>
       <c r="S3">
-        <v>142.1430813749406</v>
+        <v>142.9941211124618</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.151958685387573</v>
+        <v>1.030221610188296</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.30167314207686</v>
+        <v>11.89597447934365</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.55163834448745</v>
+        <v>6.091511901101051</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262186</v>
+        <v>3.21223381355258</v>
       </c>
       <c r="J4">
-        <v>1.113751880274868</v>
+        <v>1.113751880275138</v>
       </c>
       <c r="K4">
-        <v>3.00639754374561</v>
+        <v>3.006397543745623</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233228</v>
       </c>
       <c r="M4">
-        <v>3.006397543745379</v>
+        <v>3.006397543745307</v>
       </c>
       <c r="N4">
-        <v>0.8168453072499234</v>
+        <v>0.8360913622108624</v>
       </c>
       <c r="O4">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999999872</v>
       </c>
       <c r="P4">
-        <v>0.9021094454740588</v>
+        <v>0.91169072764072</v>
       </c>
       <c r="Q4">
-        <v>31.49316412544034</v>
+        <v>31.26543582542806</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999656</v>
+        <v>-89.99999999999672</v>
       </c>
       <c r="S4">
-        <v>140.5435759540181</v>
+        <v>141.618366621258</v>
       </c>
       <c r="T4">
-        <v>1.151958685387573</v>
+        <v>1.030221610188296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8168453072553684</v>
+        <v>0.8360913622157168</v>
       </c>
       <c r="O5">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999999872</v>
       </c>
       <c r="P5">
-        <v>0.9021094454737091</v>
+        <v>0.9116907276404876</v>
       </c>
       <c r="Q5">
-        <v>31.4931641255981</v>
+        <v>31.26543582556837</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999666</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S5">
-        <v>140.5435759543916</v>
+        <v>141.6183666215888</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8168453072553683</v>
+        <v>0.8360913622157168</v>
       </c>
       <c r="O6">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999999872</v>
       </c>
       <c r="P6">
-        <v>0.9021094454737091</v>
+        <v>0.9116907276404876</v>
       </c>
       <c r="Q6">
-        <v>31.4931641255981</v>
+        <v>31.26543582556837</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999666</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S6">
-        <v>140.5435759543916</v>
+        <v>141.6183666215888</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9714894419843783</v>
+        <v>0.9745145513490671</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985384</v>
+        <v>0.999999999998688</v>
       </c>
       <c r="P2">
-        <v>0.9895711899749619</v>
+        <v>0.9907229001483948</v>
       </c>
       <c r="Q2">
-        <v>29.76366881512976</v>
+        <v>29.78408029000811</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.453800399059</v>
+        <v>148.616906483996</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8636183456042644</v>
+        <v>0.8780819868748458</v>
       </c>
       <c r="O3">
-        <v>0.9999999999999917</v>
+        <v>0.9999999999999872</v>
       </c>
       <c r="P3">
-        <v>0.9636262065017435</v>
+        <v>0.9670105523070882</v>
       </c>
       <c r="Q3">
-        <v>28.23968561661016</v>
+        <v>28.42390548950169</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999669</v>
       </c>
       <c r="S3">
-        <v>142.1430813749406</v>
+        <v>142.9941211124618</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.151958685387573</v>
+        <v>1.030221610188296</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.30167314207686</v>
+        <v>11.89597447934365</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.55163834448745</v>
+        <v>6.091511901101051</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262186</v>
+        <v>3.21223381355258</v>
       </c>
       <c r="J4">
-        <v>1.113751880274868</v>
+        <v>1.113751880275138</v>
       </c>
       <c r="K4">
-        <v>3.00639754374561</v>
+        <v>3.006397543745623</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233228</v>
       </c>
       <c r="M4">
-        <v>3.006397543745379</v>
+        <v>3.006397543745307</v>
       </c>
       <c r="N4">
-        <v>0.8168453072499234</v>
+        <v>0.8360913622108624</v>
       </c>
       <c r="O4">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999999872</v>
       </c>
       <c r="P4">
-        <v>0.9021094454740588</v>
+        <v>0.91169072764072</v>
       </c>
       <c r="Q4">
-        <v>31.49316412544034</v>
+        <v>31.26543582542806</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999656</v>
+        <v>-89.99999999999672</v>
       </c>
       <c r="S4">
-        <v>140.5435759540181</v>
+        <v>141.618366621258</v>
       </c>
       <c r="T4">
-        <v>1.151958685387573</v>
+        <v>1.030221610188296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8168453072553684</v>
+        <v>0.8360913622157168</v>
       </c>
       <c r="O5">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999999872</v>
       </c>
       <c r="P5">
-        <v>0.9021094454737091</v>
+        <v>0.9116907276404876</v>
       </c>
       <c r="Q5">
-        <v>31.4931641255981</v>
+        <v>31.26543582556837</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999666</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S5">
-        <v>140.5435759543916</v>
+        <v>141.6183666215888</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8168453072553683</v>
+        <v>0.8360913622157168</v>
       </c>
       <c r="O6">
-        <v>0.9999999999999918</v>
+        <v>0.9999999999999872</v>
       </c>
       <c r="P6">
-        <v>0.9021094454737091</v>
+        <v>0.9116907276404876</v>
       </c>
       <c r="Q6">
-        <v>31.4931641255981</v>
+        <v>31.26543582556837</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999666</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S6">
-        <v>140.5435759543916</v>
+        <v>141.6183666215888</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.003771146437942</v>
+        <v>1.039362332082701</v>
       </c>
       <c r="O2">
-        <v>0.9380319009600877</v>
+        <v>0.9380319009586657</v>
       </c>
       <c r="P2">
-        <v>1.027066586988846</v>
+        <v>1.040951928744861</v>
       </c>
       <c r="Q2">
-        <v>25.10974688705308</v>
+        <v>25.58510750382434</v>
       </c>
       <c r="R2">
-        <v>-91.1301995219643</v>
+        <v>-91.13019952199213</v>
       </c>
       <c r="S2">
-        <v>150.105434766502</v>
+        <v>151.9811671123437</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7662234980466637</v>
+        <v>0.9013001474538103</v>
       </c>
       <c r="O3">
-        <v>0.2917056037515682</v>
+        <v>0.291705603751405</v>
       </c>
       <c r="P3">
-        <v>0.7170203818791413</v>
+        <v>0.7958604119547146</v>
       </c>
       <c r="Q3">
-        <v>-8.463037977617292</v>
+        <v>0.9703987880855161</v>
       </c>
       <c r="R3">
-        <v>-119.1713773541731</v>
+        <v>-119.1713773546613</v>
       </c>
       <c r="S3">
-        <v>149.1694533067009</v>
+        <v>162.4906997060882</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.978372114037349</v>
+        <v>4.649218586620203</v>
       </c>
       <c r="D4">
-        <v>3.316348281737781</v>
+        <v>3.167368054922004</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>69.03229498710431</v>
+        <v>53.68455205013172</v>
       </c>
       <c r="G4">
-        <v>38.29389146375722</v>
+        <v>36.57361598263682</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.382454568180948</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>3.227548034938631</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163569915</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.89843869794807</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640495</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>0.6168272759030893</v>
+        <v>0.7822922362208061</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6168272759106724</v>
+        <v>0.7822922362251948</v>
       </c>
       <c r="Q4">
-        <v>-23.63454170168728</v>
+        <v>-8.509929708739737</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>156.3654582984636</v>
+        <v>171.4900702912682</v>
       </c>
       <c r="T4">
-        <v>6.200555778018478</v>
+        <v>2.874648075904061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6168272758892142</v>
+        <v>0.7822922362108103</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6168272759194585</v>
+        <v>0.7822922362351803</v>
       </c>
       <c r="Q5">
-        <v>-23.63454170045775</v>
+        <v>-8.509929707929231</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>156.3654582990194</v>
+        <v>171.4900702911328</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6168272758892139</v>
+        <v>0.7822922362108105</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6168272759194585</v>
+        <v>0.7822922362351803</v>
       </c>
       <c r="Q6">
-        <v>-23.63454170045775</v>
+        <v>-8.509929707929208</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>156.3654582990194</v>
+        <v>171.4900702911328</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.003771146437942</v>
+        <v>1.039362332082701</v>
       </c>
       <c r="O2">
-        <v>0.9380319009600877</v>
+        <v>0.9380319009586657</v>
       </c>
       <c r="P2">
-        <v>1.027066586988846</v>
+        <v>1.040951928744861</v>
       </c>
       <c r="Q2">
-        <v>25.10974688705308</v>
+        <v>25.58510750382434</v>
       </c>
       <c r="R2">
-        <v>-91.1301995219643</v>
+        <v>-91.13019952199213</v>
       </c>
       <c r="S2">
-        <v>150.105434766502</v>
+        <v>151.9811671123437</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7662234980466637</v>
+        <v>0.9013001474538103</v>
       </c>
       <c r="O3">
-        <v>0.2917056037515682</v>
+        <v>0.291705603751405</v>
       </c>
       <c r="P3">
-        <v>0.7170203818791413</v>
+        <v>0.7958604119547146</v>
       </c>
       <c r="Q3">
-        <v>-8.463037977617292</v>
+        <v>0.9703987880855161</v>
       </c>
       <c r="R3">
-        <v>-119.1713773541731</v>
+        <v>-119.1713773546613</v>
       </c>
       <c r="S3">
-        <v>149.1694533067009</v>
+        <v>162.4906997060882</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.978372114037349</v>
+        <v>4.649218586620203</v>
       </c>
       <c r="D4">
-        <v>3.316348281737781</v>
+        <v>3.167368054922004</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>69.03229498710431</v>
+        <v>53.68455205013172</v>
       </c>
       <c r="G4">
-        <v>38.29389146375722</v>
+        <v>36.57361598263682</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.382454568180948</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>3.227548034938631</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163569915</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.89843869794807</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640495</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>0.6168272759030893</v>
+        <v>0.7822922362208061</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6168272759106724</v>
+        <v>0.7822922362251948</v>
       </c>
       <c r="Q4">
-        <v>-23.63454170168728</v>
+        <v>-8.509929708739737</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>156.3654582984636</v>
+        <v>171.4900702912682</v>
       </c>
       <c r="T4">
-        <v>6.200555778018478</v>
+        <v>2.874648075904061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6168272758892142</v>
+        <v>0.7822922362108103</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6168272759194585</v>
+        <v>0.7822922362351803</v>
       </c>
       <c r="Q5">
-        <v>-23.63454170045775</v>
+        <v>-8.509929707929231</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>156.3654582990194</v>
+        <v>171.4900702911328</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6168272758892139</v>
+        <v>0.7822922362108105</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6168272759194585</v>
+        <v>0.7822922362351803</v>
       </c>
       <c r="Q6">
-        <v>-23.63454170045775</v>
+        <v>-8.509929707929208</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>156.3654582990194</v>
+        <v>171.4900702911328</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.085119466026329</v>
+        <v>1.088229119901668</v>
       </c>
       <c r="O2">
-        <v>1.056966443490433</v>
+        <v>1.056966443490281</v>
       </c>
       <c r="P2">
-        <v>1.073012604801041</v>
+        <v>1.074151976214999</v>
       </c>
       <c r="Q2">
-        <v>28.55247409146676</v>
+        <v>28.58222885645566</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127178</v>
+        <v>-91.34292556127225</v>
       </c>
       <c r="S2">
-        <v>149.9060870231489</v>
+        <v>150.0634141364358</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.0383727798703</v>
+        <v>1.053977717644669</v>
       </c>
       <c r="O3">
-        <v>0.8910570420401244</v>
+        <v>0.8910570420398547</v>
       </c>
       <c r="P3">
-        <v>0.959085185327724</v>
+        <v>0.964098799615158</v>
       </c>
       <c r="Q3">
-        <v>21.80527961679276</v>
+        <v>22.11518606000245</v>
       </c>
       <c r="R3">
-        <v>-99.16867920487201</v>
+        <v>-99.16867920487597</v>
       </c>
       <c r="S3">
-        <v>149.0000007596288</v>
+        <v>149.9428711493053</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.425313463171979</v>
+        <v>1.341853629831292</v>
       </c>
       <c r="D4">
-        <v>1.229368488193133</v>
+        <v>1.176183246401538</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.4581022328388</v>
+        <v>15.49439108792346</v>
       </c>
       <c r="G4">
-        <v>14.19552455183097</v>
+        <v>13.58139427852511</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.382454568180948</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>3.227548034938631</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163569915</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.89843869794807</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640495</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>0.9920972039485565</v>
+        <v>1.012918238873399</v>
       </c>
       <c r="O4">
-        <v>0.8020156209381428</v>
+        <v>0.8020156209378968</v>
       </c>
       <c r="P4">
-        <v>0.9179643930775101</v>
+        <v>0.9282230814199515</v>
       </c>
       <c r="Q4">
-        <v>20.02025408702195</v>
+        <v>20.27742338673269</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013555</v>
+        <v>-99.52967390014156</v>
       </c>
       <c r="S4">
-        <v>150.5520691986205</v>
+        <v>151.7108592497097</v>
       </c>
       <c r="T4">
-        <v>1.392802299785661</v>
+        <v>1.105497144357125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9920972039467663</v>
+        <v>1.012918238871402</v>
       </c>
       <c r="O5">
-        <v>0.8020156209392318</v>
+        <v>0.8020156209389858</v>
       </c>
       <c r="P5">
-        <v>0.9179643930802834</v>
+        <v>0.9282230814229326</v>
       </c>
       <c r="Q5">
-        <v>20.02025408726495</v>
+        <v>20.2774233869484</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962163</v>
+        <v>-99.52967389962765</v>
       </c>
       <c r="S5">
-        <v>150.5520691987953</v>
+        <v>151.7108592498522</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9920972039467663</v>
+        <v>1.012918238871402</v>
       </c>
       <c r="O6">
-        <v>0.8020156209392318</v>
+        <v>0.8020156209389858</v>
       </c>
       <c r="P6">
-        <v>0.9179643930802834</v>
+        <v>0.9282230814229326</v>
       </c>
       <c r="Q6">
-        <v>20.02025408726495</v>
+        <v>20.27742338694841</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962163</v>
+        <v>-99.52967389962765</v>
       </c>
       <c r="S6">
-        <v>150.5520691987953</v>
+        <v>151.7108592498522</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.085119466026329</v>
+        <v>1.088229119901668</v>
       </c>
       <c r="O2">
-        <v>1.056966443490433</v>
+        <v>1.056966443490281</v>
       </c>
       <c r="P2">
-        <v>1.073012604801041</v>
+        <v>1.074151976214999</v>
       </c>
       <c r="Q2">
-        <v>28.55247409146676</v>
+        <v>28.58222885645566</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127178</v>
+        <v>-91.34292556127225</v>
       </c>
       <c r="S2">
-        <v>149.9060870231489</v>
+        <v>150.0634141364358</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.0383727798703</v>
+        <v>1.053977717644669</v>
       </c>
       <c r="O3">
-        <v>0.8910570420401244</v>
+        <v>0.8910570420398547</v>
       </c>
       <c r="P3">
-        <v>0.959085185327724</v>
+        <v>0.964098799615158</v>
       </c>
       <c r="Q3">
-        <v>21.80527961679276</v>
+        <v>22.11518606000245</v>
       </c>
       <c r="R3">
-        <v>-99.16867920487201</v>
+        <v>-99.16867920487597</v>
       </c>
       <c r="S3">
-        <v>149.0000007596288</v>
+        <v>149.9428711493053</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.425313463171979</v>
+        <v>1.341853629831292</v>
       </c>
       <c r="D4">
-        <v>1.229368488193133</v>
+        <v>1.176183246401538</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.4581022328388</v>
+        <v>15.49439108792346</v>
       </c>
       <c r="G4">
-        <v>14.19552455183097</v>
+        <v>13.58139427852511</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.382454568180948</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>3.227548034938631</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163569915</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.89843869794807</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640495</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>0.9920972039485565</v>
+        <v>1.012918238873399</v>
       </c>
       <c r="O4">
-        <v>0.8020156209381428</v>
+        <v>0.8020156209378968</v>
       </c>
       <c r="P4">
-        <v>0.9179643930775101</v>
+        <v>0.9282230814199515</v>
       </c>
       <c r="Q4">
-        <v>20.02025408702195</v>
+        <v>20.27742338673269</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013555</v>
+        <v>-99.52967390014156</v>
       </c>
       <c r="S4">
-        <v>150.5520691986205</v>
+        <v>151.7108592497097</v>
       </c>
       <c r="T4">
-        <v>1.392802299785661</v>
+        <v>1.105497144357125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9920972039467663</v>
+        <v>1.012918238871402</v>
       </c>
       <c r="O5">
-        <v>0.8020156209392318</v>
+        <v>0.8020156209389858</v>
       </c>
       <c r="P5">
-        <v>0.9179643930802834</v>
+        <v>0.9282230814229326</v>
       </c>
       <c r="Q5">
-        <v>20.02025408726495</v>
+        <v>20.2774233869484</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962163</v>
+        <v>-99.52967389962765</v>
       </c>
       <c r="S5">
-        <v>150.5520691987953</v>
+        <v>151.7108592498522</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9920972039467663</v>
+        <v>1.012918238871402</v>
       </c>
       <c r="O6">
-        <v>0.8020156209392318</v>
+        <v>0.8020156209389858</v>
       </c>
       <c r="P6">
-        <v>0.9179643930802834</v>
+        <v>0.9282230814229326</v>
       </c>
       <c r="Q6">
-        <v>20.02025408726495</v>
+        <v>20.27742338694841</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962163</v>
+        <v>-99.52967389962765</v>
       </c>
       <c r="S6">
-        <v>150.5520691987953</v>
+        <v>151.7108592498522</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9424522314355669</v>
+        <v>0.9578645219435514</v>
       </c>
       <c r="O2">
-        <v>0.850004952538732</v>
+        <v>0.85000495253999</v>
       </c>
       <c r="P2">
-        <v>0.9419013291063386</v>
+        <v>0.9405979222589337</v>
       </c>
       <c r="Q2">
-        <v>24.19268348627333</v>
+        <v>24.98060426639099</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332913</v>
+        <v>-92.65381631332428</v>
       </c>
       <c r="S2">
-        <v>150.5659672639323</v>
+        <v>151.7933691439896</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8654795539534913</v>
+        <v>0.9016581838683093</v>
       </c>
       <c r="O3">
-        <v>0.3617201835037247</v>
+        <v>0.3617201835036103</v>
       </c>
       <c r="P3">
-        <v>0.717362391094132</v>
+        <v>0.7147653523491566</v>
       </c>
       <c r="Q3">
-        <v>-3.400662761283679</v>
+        <v>2.492378150986708</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241612</v>
+        <v>-129.09154322417</v>
       </c>
       <c r="S3">
-        <v>152.4240958953725</v>
+        <v>160.2496416028739</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.558150608104192</v>
+        <v>3.820357550865692</v>
       </c>
       <c r="D4">
-        <v>2.355372012687772</v>
+        <v>2.668344162687237</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>52.63298961191624</v>
+        <v>44.11368920785853</v>
       </c>
       <c r="G4">
-        <v>27.19749331133992</v>
+        <v>30.81138441236086</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.091511901101003</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>3.212233813552835</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246068</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.006397543767952</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233344</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745577</v>
       </c>
       <c r="N4">
-        <v>0.6716728149593491</v>
+        <v>0.7316968765385001</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6716728149604608</v>
+        <v>0.7316968765388855</v>
       </c>
       <c r="Q4">
-        <v>-16.93689964820451</v>
+        <v>-7.542532947438617</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>163.0631003512648</v>
+        <v>172.4574670520933</v>
       </c>
       <c r="T4">
-        <v>3.705973963892706</v>
+        <v>2.124993935605125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6716728149477892</v>
+        <v>0.731696876530287</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6716728149724263</v>
+        <v>0.7316968765503643</v>
       </c>
       <c r="Q5">
-        <v>-16.93689964647829</v>
+        <v>-7.542532946050852</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>163.0631003511539</v>
+        <v>172.4574670515165</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6716728149477891</v>
+        <v>0.7316968765302871</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6716728149724265</v>
+        <v>0.7316968765503643</v>
       </c>
       <c r="Q6">
-        <v>-16.93689964647828</v>
+        <v>-7.542532946050855</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>163.0631003511539</v>
+        <v>172.4574670515165</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9424522314355669</v>
+        <v>0.9578645219435514</v>
       </c>
       <c r="O2">
-        <v>0.850004952538732</v>
+        <v>0.85000495253999</v>
       </c>
       <c r="P2">
-        <v>0.9419013291063386</v>
+        <v>0.9405979222589337</v>
       </c>
       <c r="Q2">
-        <v>24.19268348627333</v>
+        <v>24.98060426639099</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332913</v>
+        <v>-92.65381631332428</v>
       </c>
       <c r="S2">
-        <v>150.5659672639323</v>
+        <v>151.7933691439896</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8654795539534913</v>
+        <v>0.9016581838683093</v>
       </c>
       <c r="O3">
-        <v>0.3617201835037247</v>
+        <v>0.3617201835036103</v>
       </c>
       <c r="P3">
-        <v>0.717362391094132</v>
+        <v>0.7147653523491566</v>
       </c>
       <c r="Q3">
-        <v>-3.400662761283679</v>
+        <v>2.492378150986708</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241612</v>
+        <v>-129.09154322417</v>
       </c>
       <c r="S3">
-        <v>152.4240958953725</v>
+        <v>160.2496416028739</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.558150608104192</v>
+        <v>3.820357550865692</v>
       </c>
       <c r="D4">
-        <v>2.355372012687772</v>
+        <v>2.668344162687237</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>52.63298961191624</v>
+        <v>44.11368920785853</v>
       </c>
       <c r="G4">
-        <v>27.19749331133992</v>
+        <v>30.81138441236086</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.091511901101003</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>3.212233813552835</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246068</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.006397543767952</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233344</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745577</v>
       </c>
       <c r="N4">
-        <v>0.6716728149593491</v>
+        <v>0.7316968765385001</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6716728149604608</v>
+        <v>0.7316968765388855</v>
       </c>
       <c r="Q4">
-        <v>-16.93689964820451</v>
+        <v>-7.542532947438617</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>163.0631003512648</v>
+        <v>172.4574670520933</v>
       </c>
       <c r="T4">
-        <v>3.705973963892706</v>
+        <v>2.124993935605125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6716728149477892</v>
+        <v>0.731696876530287</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6716728149724263</v>
+        <v>0.7316968765503643</v>
       </c>
       <c r="Q5">
-        <v>-16.93689964647829</v>
+        <v>-7.542532946050852</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>163.0631003511539</v>
+        <v>172.4574670515165</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6716728149477891</v>
+        <v>0.7316968765302871</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6716728149724265</v>
+        <v>0.7316968765503643</v>
       </c>
       <c r="Q6">
-        <v>-16.93689964647828</v>
+        <v>-7.542532946050855</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>163.0631003511539</v>
+        <v>172.4574670515165</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9872732704743753</v>
+        <v>0.9898354833993959</v>
       </c>
       <c r="O2">
-        <v>0.9581045791303407</v>
+        <v>0.9581045791304954</v>
       </c>
       <c r="P2">
-        <v>0.9742986184078002</v>
+        <v>0.9748656442225697</v>
       </c>
       <c r="Q2">
-        <v>28.3548522078124</v>
+        <v>28.40756508979845</v>
       </c>
       <c r="R2">
-        <v>-91.55789971898027</v>
+        <v>-91.55789971898</v>
       </c>
       <c r="S2">
-        <v>149.8835077627428</v>
+        <v>150.0398339408359</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9540301184162778</v>
+        <v>0.9655171284389285</v>
       </c>
       <c r="O3">
-        <v>0.8139299031203258</v>
+        <v>0.8139299031203265</v>
       </c>
       <c r="P3">
-        <v>0.8764516590625258</v>
+        <v>0.8783904455533993</v>
       </c>
       <c r="Q3">
-        <v>21.54630532481583</v>
+        <v>21.92898581335031</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736731</v>
+        <v>-99.65273561736709</v>
       </c>
       <c r="S3">
-        <v>148.9519453797822</v>
+        <v>149.8015684266807</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.249557816225953</v>
+        <v>1.178392316138478</v>
       </c>
       <c r="D4">
-        <v>1.031184646681271</v>
+        <v>1.005749142171542</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.42865083132109</v>
+        <v>13.60690241867073</v>
       </c>
       <c r="G4">
-        <v>11.90709466691282</v>
+        <v>11.6133907593995</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.091511901101003</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>3.212233813552835</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246068</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.006397543767952</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233344</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745577</v>
       </c>
       <c r="N4">
-        <v>0.8862366025193016</v>
+        <v>0.9032077739324994</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934285</v>
+        <v>0.7019303077934195</v>
       </c>
       <c r="P4">
-        <v>0.8378278209627849</v>
+        <v>0.8463372666783355</v>
       </c>
       <c r="Q4">
-        <v>19.95292512464314</v>
+        <v>20.2083558850042</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042474</v>
+        <v>-97.63434507042346</v>
       </c>
       <c r="S4">
-        <v>152.0042069778074</v>
+        <v>153.0395220963362</v>
       </c>
       <c r="T4">
-        <v>1.14360122740861</v>
+        <v>0.9266230730294216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8862366025191702</v>
+        <v>0.903207773931995</v>
       </c>
       <c r="O5">
-        <v>0.7019303077992132</v>
+        <v>0.701930307799204</v>
       </c>
       <c r="P5">
-        <v>0.8378278209677866</v>
+        <v>0.8463372666833749</v>
       </c>
       <c r="Q5">
-        <v>19.95292512505613</v>
+        <v>20.20835588538509</v>
       </c>
       <c r="R5">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506974261</v>
       </c>
       <c r="S5">
-        <v>152.0042069779209</v>
+        <v>153.0395220964049</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8862366025191705</v>
+        <v>0.903207773931995</v>
       </c>
       <c r="O6">
-        <v>0.7019303077992134</v>
+        <v>0.7019303077992041</v>
       </c>
       <c r="P6">
-        <v>0.8378278209677866</v>
+        <v>0.8463372666833752</v>
       </c>
       <c r="Q6">
-        <v>19.95292512505614</v>
+        <v>20.20835588538509</v>
       </c>
       <c r="R6">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506974261</v>
       </c>
       <c r="S6">
-        <v>152.0042069779209</v>
+        <v>153.0395220964049</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9872732704743753</v>
+        <v>0.9898354833993959</v>
       </c>
       <c r="O2">
-        <v>0.9581045791303407</v>
+        <v>0.9581045791304954</v>
       </c>
       <c r="P2">
-        <v>0.9742986184078002</v>
+        <v>0.9748656442225697</v>
       </c>
       <c r="Q2">
-        <v>28.3548522078124</v>
+        <v>28.40756508979845</v>
       </c>
       <c r="R2">
-        <v>-91.55789971898027</v>
+        <v>-91.55789971898</v>
       </c>
       <c r="S2">
-        <v>149.8835077627428</v>
+        <v>150.0398339408359</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9540301184162778</v>
+        <v>0.9655171284389285</v>
       </c>
       <c r="O3">
-        <v>0.8139299031203258</v>
+        <v>0.8139299031203265</v>
       </c>
       <c r="P3">
-        <v>0.8764516590625258</v>
+        <v>0.8783904455533993</v>
       </c>
       <c r="Q3">
-        <v>21.54630532481583</v>
+        <v>21.92898581335031</v>
       </c>
       <c r="R3">
-        <v>-99.65273561736731</v>
+        <v>-99.65273561736709</v>
       </c>
       <c r="S3">
-        <v>148.9519453797822</v>
+        <v>149.8015684266807</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.249557816225953</v>
+        <v>1.178392316138478</v>
       </c>
       <c r="D4">
-        <v>1.031184646681271</v>
+        <v>1.005749142171542</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.42865083132109</v>
+        <v>13.60690241867073</v>
       </c>
       <c r="G4">
-        <v>11.90709466691282</v>
+        <v>11.6133907593995</v>
       </c>
       <c r="H4">
-        <v>3.551638344487404</v>
+        <v>6.091511901101003</v>
       </c>
       <c r="I4">
-        <v>0.7246530378264683</v>
+        <v>3.212233813552835</v>
       </c>
       <c r="J4">
-        <v>1.113751880246191</v>
+        <v>1.113751880246068</v>
       </c>
       <c r="K4">
-        <v>3.006397543768198</v>
+        <v>3.006397543767952</v>
       </c>
       <c r="L4">
-        <v>1.11375188023326</v>
+        <v>1.113751880233344</v>
       </c>
       <c r="M4">
-        <v>3.006397543745579</v>
+        <v>3.006397543745577</v>
       </c>
       <c r="N4">
-        <v>0.8862366025193016</v>
+        <v>0.9032077739324994</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934285</v>
+        <v>0.7019303077934195</v>
       </c>
       <c r="P4">
-        <v>0.8378278209627849</v>
+        <v>0.8463372666783355</v>
       </c>
       <c r="Q4">
-        <v>19.95292512464314</v>
+        <v>20.2083558850042</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042474</v>
+        <v>-97.63434507042346</v>
       </c>
       <c r="S4">
-        <v>152.0042069778074</v>
+        <v>153.0395220963362</v>
       </c>
       <c r="T4">
-        <v>1.14360122740861</v>
+        <v>0.9266230730294216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8862366025191702</v>
+        <v>0.903207773931995</v>
       </c>
       <c r="O5">
-        <v>0.7019303077992132</v>
+        <v>0.701930307799204</v>
       </c>
       <c r="P5">
-        <v>0.8378278209677866</v>
+        <v>0.8463372666833749</v>
       </c>
       <c r="Q5">
-        <v>19.95292512505613</v>
+        <v>20.20835588538509</v>
       </c>
       <c r="R5">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506974261</v>
       </c>
       <c r="S5">
-        <v>152.0042069779209</v>
+        <v>153.0395220964049</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8862366025191705</v>
+        <v>0.903207773931995</v>
       </c>
       <c r="O6">
-        <v>0.7019303077992134</v>
+        <v>0.7019303077992041</v>
       </c>
       <c r="P6">
-        <v>0.8378278209677866</v>
+        <v>0.8463372666833752</v>
       </c>
       <c r="Q6">
-        <v>19.95292512505614</v>
+        <v>20.20835588538509</v>
       </c>
       <c r="R6">
-        <v>-97.63434506974384</v>
+        <v>-97.63434506974261</v>
       </c>
       <c r="S6">
-        <v>152.0042069779209</v>
+        <v>153.0395220964049</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10547,7 +10547,7 @@
         <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739707</v>
+        <v>25.98965116739708</v>
       </c>
       <c r="R2">
         <v>-91.13019952201601</v>
@@ -10600,16 +10600,16 @@
         <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512941</v>
+        <v>0.291705603751294</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644384</v>
+        <v>0.8906876332644386</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062534</v>
+        <v>7.091324389062555</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.17137735508</v>
       </c>
       <c r="S3">
         <v>171.7794727726615</v>
@@ -10623,49 +10623,49 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.70915442393707</v>
+        <v>3.709154423937069</v>
       </c>
       <c r="D4">
-        <v>3.70915442393707</v>
+        <v>3.709154423937069</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251916</v>
       </c>
       <c r="G4">
-        <v>42.82962610251918</v>
+        <v>42.82962610251916</v>
       </c>
       <c r="H4">
-        <v>1.849825689567628</v>
+        <v>4.382454568180948</v>
       </c>
       <c r="I4">
-        <v>0.7325309365759302</v>
+        <v>3.227548034938631</v>
       </c>
       <c r="J4">
-        <v>0.6277319163571218</v>
+        <v>0.6277319163569915</v>
       </c>
       <c r="K4">
-        <v>2.898438697948321</v>
+        <v>2.89843869794807</v>
       </c>
       <c r="L4">
-        <v>0.6277319163639651</v>
+        <v>0.6277319163640495</v>
       </c>
       <c r="M4">
-        <v>2.898438697960011</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032094</v>
+        <v>0.9526279648032097</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047558</v>
+        <v>0.952627964804756</v>
       </c>
       <c r="Q4">
-        <v>-1.253133125492379E-11</v>
+        <v>-1.250178344372813E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10715,16 +10715,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942856</v>
+        <v>0.9526279647942858</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136794</v>
+        <v>0.9526279648136797</v>
       </c>
       <c r="Q5">
-        <v>4.605063358393287E-10</v>
+        <v>4.605321550943696E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10774,16 +10774,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942856</v>
+        <v>0.9526279647942858</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136793</v>
+        <v>0.9526279648136797</v>
       </c>
       <c r="Q6">
-        <v>4.605066884408088E-10</v>
+        <v>4.60530213608286E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
